--- a/Results/Act/Lifetime/Results_world_act_life_Avg.xlsx
+++ b/Results/Act/Lifetime/Results_world_act_life_Avg.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285202032373</v>
+        <v>262.0285184034511</v>
       </c>
       <c r="E2">
-        <v>302.6178310284677</v>
+        <v>302.617827822444</v>
       </c>
       <c r="F2">
-        <v>500.2357602805271</v>
+        <v>500.2357540862754</v>
       </c>
       <c r="G2">
-        <v>370.6149290511534</v>
+        <v>370.6149177364533</v>
       </c>
       <c r="H2">
-        <v>949.0097328674848</v>
+        <v>949.0097159154795</v>
       </c>
       <c r="I2">
-        <v>545.2987811474675</v>
+        <v>545.2987510605542</v>
       </c>
       <c r="J2">
-        <v>608.5257293390149</v>
+        <v>608.5256738651177</v>
       </c>
       <c r="K2">
-        <v>699.9599536105036</v>
+        <v>699.9598424085758</v>
       </c>
       <c r="L2">
-        <v>557.9952174054451</v>
+        <v>557.994991823894</v>
       </c>
       <c r="M2">
-        <v>684.8675045700971</v>
+        <v>684.8669460995321</v>
       </c>
       <c r="N2">
-        <v>348.2423953413089</v>
+        <v>348.2408663479948</v>
       </c>
       <c r="O2">
-        <v>388.059148637985</v>
+        <v>388.0554915106979</v>
       </c>
       <c r="P2">
-        <v>780.7474070153663</v>
+        <v>780.7379448815167</v>
       </c>
       <c r="Q2">
-        <v>797.5629931175152</v>
+        <v>797.5431343360915</v>
       </c>
       <c r="R2">
-        <v>815.0730434979605</v>
+        <v>815.042668472306</v>
       </c>
       <c r="S2">
-        <v>1999.69850607972</v>
+        <v>1999.670233850687</v>
       </c>
       <c r="T2">
-        <v>1991.72450972853</v>
+        <v>1991.708043903017</v>
       </c>
       <c r="U2">
-        <v>1994.271271835808</v>
+        <v>1994.25786837391</v>
       </c>
       <c r="V2">
-        <v>2009.649282667549</v>
+        <v>2009.628353687229</v>
       </c>
       <c r="W2">
-        <v>2026.499246425065</v>
+        <v>2026.469718974883</v>
       </c>
       <c r="X2">
-        <v>1873.97957114302</v>
+        <v>1873.938260914215</v>
       </c>
       <c r="Y2">
-        <v>1898.194971409407</v>
+        <v>1898.138506073064</v>
       </c>
       <c r="Z2">
-        <v>1916.28984747752</v>
+        <v>1916.223368454001</v>
       </c>
       <c r="AA2">
-        <v>1937.940777281595</v>
+        <v>1937.861343036873</v>
       </c>
       <c r="AB2">
-        <v>1998.609991641724</v>
+        <v>1998.485064117554</v>
       </c>
       <c r="AC2">
-        <v>749.5193840407976</v>
+        <v>749.3184471285144</v>
       </c>
       <c r="AD2">
-        <v>859.7068389923752</v>
+        <v>859.4193986676687</v>
       </c>
       <c r="AE2">
-        <v>966.4289632890997</v>
+        <v>966.0580535575029</v>
       </c>
       <c r="AF2">
-        <v>957.2747968649796</v>
+        <v>956.9173444553755</v>
       </c>
       <c r="AG2">
-        <v>917.5312752505716</v>
+        <v>917.2131035705557</v>
       </c>
       <c r="AH2">
-        <v>727.6626095319128</v>
+        <v>727.3534655360984</v>
       </c>
       <c r="AI2">
-        <v>702.6725629459866</v>
+        <v>702.3912576065931</v>
       </c>
       <c r="AJ2">
-        <v>670.5296116451027</v>
+        <v>670.2825541780678</v>
       </c>
       <c r="AK2">
-        <v>649.0371317023415</v>
+        <v>648.8158676334045</v>
       </c>
       <c r="AL2">
-        <v>737.3778314138315</v>
+        <v>737.0910897796194</v>
       </c>
       <c r="AM2">
-        <v>935.7025049913922</v>
+        <v>935.2589082102712</v>
       </c>
       <c r="AN2">
-        <v>1154.140313610231</v>
+        <v>1153.523404861627</v>
       </c>
       <c r="AO2">
-        <v>1464.564914110413</v>
+        <v>1463.697981582617</v>
       </c>
       <c r="AP2">
-        <v>1862.725263681373</v>
+        <v>1861.534964683922</v>
       </c>
       <c r="AQ2">
-        <v>2067.662937141728</v>
+        <v>2066.310675254947</v>
       </c>
       <c r="AR2">
-        <v>2088.912502197642</v>
+        <v>2087.551670178408</v>
       </c>
       <c r="AS2">
-        <v>2087.434874584189</v>
+        <v>2086.083809189288</v>
       </c>
       <c r="AT2">
-        <v>2064.477488409122</v>
+        <v>2063.153269559384</v>
       </c>
       <c r="AU2">
-        <v>2023.39337791185</v>
+        <v>2022.110123961084</v>
       </c>
       <c r="AV2">
-        <v>2009.233262893034</v>
+        <v>2007.976051173363</v>
       </c>
       <c r="AW2">
-        <v>1981.476774159908</v>
+        <v>1980.250161268977</v>
       </c>
       <c r="AX2">
-        <v>2085.943540061691</v>
+        <v>2084.813766251633</v>
       </c>
       <c r="AY2">
-        <v>1822.679816590253</v>
+        <v>1821.773364453686</v>
       </c>
       <c r="AZ2">
-        <v>1461.914561100567</v>
+        <v>1461.312404851243</v>
       </c>
       <c r="BA2">
-        <v>1309.110190001496</v>
+        <v>1308.638061724038</v>
       </c>
       <c r="BB2">
-        <v>1302.041706883273</v>
+        <v>1301.555808817641</v>
       </c>
       <c r="BC2">
-        <v>1281.07139832723</v>
+        <v>1280.605898888013</v>
       </c>
       <c r="BD2">
-        <v>1212.481857382721</v>
+        <v>1212.077009378911</v>
       </c>
       <c r="BE2">
-        <v>1130.885076003956</v>
+        <v>1130.552413362454</v>
       </c>
       <c r="BF2">
-        <v>1083.920056260933</v>
+        <v>1083.631389133755</v>
       </c>
       <c r="BG2">
-        <v>1056.144534450785</v>
+        <v>1055.862971609707</v>
       </c>
       <c r="BH2">
-        <v>1104.648956110858</v>
+        <v>1104.333651088296</v>
       </c>
       <c r="BI2">
-        <v>1229.794508586507</v>
+        <v>1229.38219287434</v>
       </c>
       <c r="BJ2">
-        <v>1430.70155965814</v>
+        <v>1430.129586655711</v>
       </c>
       <c r="BK2">
-        <v>1683.309973060686</v>
+        <v>1682.535642200454</v>
       </c>
       <c r="BL2">
-        <v>1944.467442461146</v>
+        <v>1943.467628610105</v>
       </c>
       <c r="BM2">
-        <v>2199.060017804668</v>
+        <v>2197.857037367811</v>
       </c>
       <c r="BN2">
-        <v>2351.339535784355</v>
+        <v>2350.019031335</v>
       </c>
       <c r="BO2">
-        <v>2396.931131337208</v>
+        <v>2395.582275845659</v>
       </c>
       <c r="BP2">
-        <v>2392.407333817707</v>
+        <v>2391.071870411548</v>
       </c>
       <c r="BQ2">
-        <v>2358.452468684463</v>
+        <v>2357.143560300943</v>
       </c>
       <c r="BR2">
-        <v>2332.618745286035</v>
+        <v>2331.340826434585</v>
       </c>
       <c r="BS2">
-        <v>2307.250433972793</v>
+        <v>2306.002695694771</v>
       </c>
       <c r="BT2">
-        <v>2272.3197575604</v>
+        <v>2271.109741335263</v>
       </c>
       <c r="BU2">
-        <v>2188.016981024347</v>
+        <v>2186.885509785121</v>
       </c>
       <c r="BV2">
-        <v>1992.643575091357</v>
+        <v>1991.672150231059</v>
       </c>
       <c r="BW2">
-        <v>1783.344752321411</v>
+        <v>1782.555875951441</v>
       </c>
       <c r="BX2">
-        <v>1658.306140499431</v>
+        <v>1657.628924895234</v>
       </c>
       <c r="BY2">
-        <v>1610.619987484589</v>
+        <v>1609.989384512058</v>
       </c>
       <c r="BZ2">
-        <v>1574.465310701203</v>
+        <v>1573.87142285613</v>
       </c>
       <c r="CA2">
-        <v>1509.714888587753</v>
+        <v>1509.170074516072</v>
       </c>
       <c r="CB2">
-        <v>1461.459516928217</v>
+        <v>1460.961865340927</v>
       </c>
       <c r="CC2">
-        <v>1440.903758853472</v>
+        <v>1440.43024057695</v>
       </c>
       <c r="CD2">
-        <v>1465.98523714735</v>
+        <v>1465.497930446688</v>
       </c>
       <c r="CE2">
-        <v>1552.477268690863</v>
+        <v>1551.925155486261</v>
       </c>
       <c r="CF2">
-        <v>1689.616261775963</v>
+        <v>1688.944518138659</v>
       </c>
       <c r="CG2">
-        <v>1896.128072078227</v>
+        <v>1895.292480955234</v>
       </c>
       <c r="CH2">
-        <v>2130.285864467734</v>
+        <v>2129.263693219189</v>
       </c>
       <c r="CI2">
-        <v>2357.733436624745</v>
+        <v>2356.530634166462</v>
       </c>
       <c r="CJ2">
-        <v>2542.417566306566</v>
+        <v>2541.070171647829</v>
       </c>
       <c r="CK2">
-        <v>2633.535545333726</v>
+        <v>2632.104245031508</v>
       </c>
       <c r="CL2">
-        <v>2674.302115766278</v>
+        <v>2672.847439140884</v>
       </c>
       <c r="CM2">
-        <v>2669.908516597779</v>
+        <v>2668.468280088894</v>
       </c>
       <c r="CN2">
-        <v>2645.367592805048</v>
+        <v>2643.958618902758</v>
       </c>
       <c r="CO2">
-        <v>2612.82785964697</v>
+        <v>2611.456744606297</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907216154162</v>
+        <v>16.490721496882</v>
       </c>
       <c r="E3">
-        <v>19.15942835285735</v>
+        <v>19.15942814175727</v>
       </c>
       <c r="F3">
-        <v>32.31320086500591</v>
+        <v>32.31320045753156</v>
       </c>
       <c r="G3">
-        <v>23.60829572066126</v>
+        <v>23.60829497880219</v>
       </c>
       <c r="H3">
-        <v>62.55452880779785</v>
+        <v>62.55452770755029</v>
       </c>
       <c r="I3">
-        <v>35.42818074896121</v>
+        <v>35.42817885003157</v>
       </c>
       <c r="J3">
-        <v>39.56223371570139</v>
+        <v>39.56223044701692</v>
       </c>
       <c r="K3">
-        <v>45.55012038057215</v>
+        <v>45.55011472282668</v>
       </c>
       <c r="L3">
-        <v>36.06020643601949</v>
+        <v>36.06019757810478</v>
       </c>
       <c r="M3">
-        <v>44.508432394896</v>
+        <v>44.50841710804004</v>
       </c>
       <c r="N3">
-        <v>21.75104760766413</v>
+        <v>21.75101938017308</v>
       </c>
       <c r="O3">
-        <v>24.5696774546183</v>
+        <v>24.5696299888898</v>
       </c>
       <c r="P3">
-        <v>50.86128714517638</v>
+        <v>50.86119544776037</v>
       </c>
       <c r="Q3">
-        <v>54.33461745097454</v>
+        <v>54.33448002357361</v>
       </c>
       <c r="R3">
-        <v>57.95856676452343</v>
+        <v>57.95841263251936</v>
       </c>
       <c r="S3">
-        <v>151.7723483027343</v>
+        <v>151.7722049585937</v>
       </c>
       <c r="T3">
-        <v>157.4321006226895</v>
+        <v>157.4319689270494</v>
       </c>
       <c r="U3">
-        <v>163.9097224624032</v>
+        <v>163.9096034398587</v>
       </c>
       <c r="V3">
-        <v>171.515308140565</v>
+        <v>171.5152105738091</v>
       </c>
       <c r="W3">
-        <v>179.3414465610974</v>
+        <v>179.3413841660082</v>
       </c>
       <c r="X3">
-        <v>165.4237225942346</v>
+        <v>165.4236525638946</v>
       </c>
       <c r="Y3">
-        <v>167.5282956987257</v>
+        <v>167.5282164672555</v>
       </c>
       <c r="Z3">
-        <v>169.0738794420963</v>
+        <v>169.0737929965332</v>
       </c>
       <c r="AA3">
-        <v>170.944319535574</v>
+        <v>170.9442258863566</v>
       </c>
       <c r="AB3">
-        <v>176.378980972689</v>
+        <v>176.378876769218</v>
       </c>
       <c r="AC3">
-        <v>63.14154774762857</v>
+        <v>63.14143078088068</v>
       </c>
       <c r="AD3">
-        <v>73.0971267457801</v>
+        <v>73.09699341746011</v>
       </c>
       <c r="AE3">
-        <v>82.73588712927813</v>
+        <v>82.7357345483186</v>
       </c>
       <c r="AF3">
-        <v>81.78899850580895</v>
+        <v>81.78882889024261</v>
       </c>
       <c r="AG3">
-        <v>78.04737179102644</v>
+        <v>78.04718224701905</v>
       </c>
       <c r="AH3">
-        <v>60.72572096706516</v>
+        <v>60.72550252504862</v>
       </c>
       <c r="AI3">
-        <v>58.3269729207237</v>
+        <v>58.32671314757486</v>
       </c>
       <c r="AJ3">
-        <v>55.27349249858865</v>
+        <v>55.27317560888937</v>
       </c>
       <c r="AK3">
-        <v>53.19125302731083</v>
+        <v>53.19085748039748</v>
       </c>
       <c r="AL3">
-        <v>61.14036682780185</v>
+        <v>61.13986262437439</v>
       </c>
       <c r="AM3">
-        <v>79.13443156188649</v>
+        <v>79.13379299352648</v>
       </c>
       <c r="AN3">
-        <v>98.96486389744621</v>
+        <v>98.96407798577548</v>
       </c>
       <c r="AO3">
-        <v>127.1964842913617</v>
+        <v>127.1955225602612</v>
       </c>
       <c r="AP3">
-        <v>163.4414042512451</v>
+        <v>163.4402438506976</v>
       </c>
       <c r="AQ3">
-        <v>182.0387680865969</v>
+        <v>182.0374634763832</v>
       </c>
       <c r="AR3">
-        <v>183.8565033287166</v>
+        <v>183.8551124367383</v>
       </c>
       <c r="AS3">
-        <v>183.5997791588493</v>
+        <v>183.5983235903722</v>
       </c>
       <c r="AT3">
-        <v>181.3828807200136</v>
+        <v>181.3813858530097</v>
       </c>
       <c r="AU3">
-        <v>177.5123066912152</v>
+        <v>177.5107999442371</v>
       </c>
       <c r="AV3">
-        <v>176.0906416204249</v>
+        <v>176.0891432067907</v>
       </c>
       <c r="AW3">
-        <v>173.427690105594</v>
+        <v>173.4262270892911</v>
       </c>
       <c r="AX3">
-        <v>182.7003091493297</v>
+        <v>182.69892745938</v>
       </c>
       <c r="AY3">
-        <v>158.5348410930466</v>
+        <v>158.5336030946535</v>
       </c>
       <c r="AZ3">
-        <v>125.4654639828412</v>
+        <v>125.4644114024011</v>
       </c>
       <c r="BA3">
-        <v>111.3905863217078</v>
+        <v>111.3896705369742</v>
       </c>
       <c r="BB3">
-        <v>110.6337948739354</v>
+        <v>110.6329653622369</v>
       </c>
       <c r="BC3">
-        <v>108.5872342922389</v>
+        <v>108.5864876187308</v>
       </c>
       <c r="BD3">
-        <v>102.1901485967262</v>
+        <v>102.1894818878332</v>
       </c>
       <c r="BE3">
-        <v>94.60372044870395</v>
+        <v>94.60312119591445</v>
       </c>
       <c r="BF3">
-        <v>90.17861728336773</v>
+        <v>90.17805535692079</v>
       </c>
       <c r="BG3">
-        <v>87.51379103380665</v>
+        <v>87.51323184586069</v>
       </c>
       <c r="BH3">
-        <v>91.79570494283739</v>
+        <v>91.79511712764966</v>
       </c>
       <c r="BI3">
-        <v>103.0765757081859</v>
+        <v>103.0759278088637</v>
       </c>
       <c r="BJ3">
-        <v>121.2763528308918</v>
+        <v>121.2756171525646</v>
       </c>
       <c r="BK3">
-        <v>144.1975132386681</v>
+        <v>144.1966679243798</v>
       </c>
       <c r="BL3">
-        <v>167.905586654282</v>
+        <v>167.9046171846336</v>
       </c>
       <c r="BM3">
-        <v>190.9996520829343</v>
+        <v>190.9985613094751</v>
       </c>
       <c r="BN3">
-        <v>204.7489172003835</v>
+        <v>204.747730861352</v>
       </c>
       <c r="BO3">
-        <v>208.7540593729651</v>
+        <v>208.752807365664</v>
       </c>
       <c r="BP3">
-        <v>208.182334176437</v>
+        <v>208.1810343861733</v>
       </c>
       <c r="BQ3">
-        <v>204.9214494513998</v>
+        <v>204.9201130771714</v>
       </c>
       <c r="BR3">
-        <v>202.3932445331295</v>
+        <v>202.3918819730835</v>
       </c>
       <c r="BS3">
-        <v>199.9084459724994</v>
+        <v>199.9070678766878</v>
       </c>
       <c r="BT3">
-        <v>196.5513113798269</v>
+        <v>196.5499327597137</v>
       </c>
       <c r="BU3">
-        <v>188.6859231214253</v>
+        <v>188.6845704624241</v>
       </c>
       <c r="BV3">
-        <v>170.6767532786053</v>
+        <v>170.6754652471033</v>
       </c>
       <c r="BW3">
-        <v>151.3869996396531</v>
+        <v>151.3857935431905</v>
       </c>
       <c r="BX3">
-        <v>139.7935945844096</v>
+        <v>139.7924537780395</v>
       </c>
       <c r="BY3">
-        <v>135.2652521718099</v>
+        <v>135.2641571208593</v>
       </c>
       <c r="BZ3">
-        <v>131.7900101248373</v>
+        <v>131.7889556388097</v>
       </c>
       <c r="CA3">
-        <v>125.702497042471</v>
+        <v>125.7014838700736</v>
       </c>
       <c r="CB3">
-        <v>121.1111843089265</v>
+        <v>121.1102076721679</v>
       </c>
       <c r="CC3">
-        <v>119.0493148154485</v>
+        <v>119.0483614264442</v>
       </c>
       <c r="CD3">
-        <v>121.1551300172503</v>
+        <v>121.1541810814403</v>
       </c>
       <c r="CE3">
-        <v>128.8693502293802</v>
+        <v>128.8683840020805</v>
       </c>
       <c r="CF3">
-        <v>141.2086735749186</v>
+        <v>141.207668557943</v>
       </c>
       <c r="CG3">
-        <v>159.8723959434512</v>
+        <v>159.8713338798143</v>
       </c>
       <c r="CH3">
-        <v>181.0606602004258</v>
+        <v>181.0595283661701</v>
       </c>
       <c r="CI3">
-        <v>201.6355319667774</v>
+        <v>201.634326125484</v>
       </c>
       <c r="CJ3">
-        <v>218.3041862437121</v>
+        <v>218.302912449624</v>
       </c>
       <c r="CK3">
-        <v>226.431282289104</v>
+        <v>226.4299559381263</v>
       </c>
       <c r="CL3">
-        <v>229.9439287635778</v>
+        <v>229.9425670941785</v>
       </c>
       <c r="CM3">
-        <v>229.3319058407701</v>
+        <v>229.3305209164093</v>
       </c>
       <c r="CN3">
-        <v>226.879900094635</v>
+        <v>226.878499245783</v>
       </c>
       <c r="CO3">
-        <v>223.6976331668523</v>
+        <v>223.6962222691025</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474439.87974429</v>
+        <v>26474419.10068802</v>
       </c>
       <c r="E4">
-        <v>26777326.14045737</v>
+        <v>26777289.13431059</v>
       </c>
       <c r="F4">
-        <v>29376395.63318066</v>
+        <v>29376324.20036948</v>
       </c>
       <c r="G4">
-        <v>29467977.58037845</v>
+        <v>29467847.51655655</v>
       </c>
       <c r="H4">
-        <v>26833222.89539192</v>
+        <v>26833029.95119499</v>
       </c>
       <c r="I4">
-        <v>26320193.50608942</v>
+        <v>26319860.29079583</v>
       </c>
       <c r="J4">
-        <v>29028996.97306588</v>
+        <v>29028422.52673142</v>
       </c>
       <c r="K4">
-        <v>32850292.99187069</v>
+        <v>32849295.30546647</v>
       </c>
       <c r="L4">
-        <v>32629017.28860994</v>
+        <v>32627444.45516806</v>
       </c>
       <c r="M4">
-        <v>34712097.46922047</v>
+        <v>34709349.51894218</v>
       </c>
       <c r="N4">
-        <v>37571414.25304347</v>
+        <v>37566248.4268424</v>
       </c>
       <c r="O4">
-        <v>34865674.4885833</v>
+        <v>34856813.8691586</v>
       </c>
       <c r="P4">
-        <v>38736267.40098941</v>
+        <v>38718879.76888672</v>
       </c>
       <c r="Q4">
-        <v>39905875.97478346</v>
+        <v>39877406.99647937</v>
       </c>
       <c r="R4">
-        <v>41055951.26427984</v>
+        <v>41020646.76113675</v>
       </c>
       <c r="S4">
-        <v>45679122.19034111</v>
+        <v>45641978.88823558</v>
       </c>
       <c r="T4">
-        <v>46586238.50666754</v>
+        <v>46546022.24267036</v>
       </c>
       <c r="U4">
-        <v>47495934.53663427</v>
+        <v>47450325.29861248</v>
       </c>
       <c r="V4">
-        <v>48403985.02602653</v>
+        <v>48351831.29651559</v>
       </c>
       <c r="W4">
-        <v>49307969.05108082</v>
+        <v>49249129.28483271</v>
       </c>
       <c r="X4">
-        <v>50485194.35138876</v>
+        <v>50419163.56305536</v>
       </c>
       <c r="Y4">
-        <v>51839042.91617008</v>
+        <v>51764342.01417334</v>
       </c>
       <c r="Z4">
-        <v>53189569.86789995</v>
+        <v>53108079.85869302</v>
       </c>
       <c r="AA4">
-        <v>54539737.13616467</v>
+        <v>54451470.25823949</v>
       </c>
       <c r="AB4">
-        <v>55894220.43545947</v>
+        <v>55796011.88076303</v>
       </c>
       <c r="AC4">
-        <v>55038937.47591078</v>
+        <v>54928704.54978649</v>
       </c>
       <c r="AD4">
-        <v>56404423.23171148</v>
+        <v>56278773.02069536</v>
       </c>
       <c r="AE4">
-        <v>57772707.5423857</v>
+        <v>57628921.35284009</v>
       </c>
       <c r="AF4">
-        <v>59136512.84091261</v>
+        <v>58976709.8896409</v>
       </c>
       <c r="AG4">
-        <v>60501701.55102077</v>
+        <v>60323175.40708433</v>
       </c>
       <c r="AH4">
-        <v>61514566.73955744</v>
+        <v>61308873.96394449</v>
       </c>
       <c r="AI4">
-        <v>62926631.89714467</v>
+        <v>62682060.73944838</v>
       </c>
       <c r="AJ4">
-        <v>64357679.12383437</v>
+        <v>64059353.70102868</v>
       </c>
       <c r="AK4">
-        <v>65816282.27448512</v>
+        <v>65443887.09816343</v>
       </c>
       <c r="AL4">
-        <v>67314541.38129722</v>
+        <v>66839761.45052585</v>
       </c>
       <c r="AM4">
-        <v>68819083.38424034</v>
+        <v>68217656.44363019</v>
       </c>
       <c r="AN4">
-        <v>70339288.89456731</v>
+        <v>69598980.74080111</v>
       </c>
       <c r="AO4">
-        <v>71900895.69788963</v>
+        <v>70994799.81018661</v>
       </c>
       <c r="AP4">
-        <v>73497472.77031548</v>
+        <v>72403982.65835778</v>
       </c>
       <c r="AQ4">
-        <v>75012147.59947333</v>
+        <v>73782745.55707443</v>
       </c>
       <c r="AR4">
-        <v>76428063.5263226</v>
+        <v>75117485.15206741</v>
       </c>
       <c r="AS4">
-        <v>77818725.09788555</v>
+        <v>76447328.81549072</v>
       </c>
       <c r="AT4">
-        <v>79180869.9754352</v>
+        <v>77772559.1934194</v>
       </c>
       <c r="AU4">
-        <v>80513234.39984442</v>
+        <v>79093825.52538571</v>
       </c>
       <c r="AV4">
-        <v>82028181.82776859</v>
+        <v>80616668.7491236</v>
       </c>
       <c r="AW4">
-        <v>83459754.10706897</v>
+        <v>82081610.81785059</v>
       </c>
       <c r="AX4">
-        <v>84885783.75222234</v>
+        <v>83584336.22262804</v>
       </c>
       <c r="AY4">
-        <v>86114945.85151286</v>
+        <v>84949083.39177743</v>
       </c>
       <c r="AZ4">
-        <v>87286580.51919314</v>
+        <v>86295699.43460667</v>
       </c>
       <c r="BA4">
-        <v>88537555.33887047</v>
+        <v>87675636.67492184</v>
       </c>
       <c r="BB4">
-        <v>89914058.83233525</v>
+        <v>89133316.83927406</v>
       </c>
       <c r="BC4">
-        <v>91335734.94608648</v>
+        <v>90632945.35779279</v>
       </c>
       <c r="BD4">
-        <v>92756485.46091294</v>
+        <v>92128981.65150052</v>
       </c>
       <c r="BE4">
-        <v>94188582.76519172</v>
+        <v>93624607.98909611</v>
       </c>
       <c r="BF4">
-        <v>95657774.13010681</v>
+        <v>95128921.75712925</v>
       </c>
       <c r="BG4">
-        <v>97204605.53418469</v>
+        <v>96678259.87244968</v>
       </c>
       <c r="BH4">
-        <v>98830976.37080967</v>
+        <v>98277568.04991323</v>
       </c>
       <c r="BI4">
-        <v>100496161.165534</v>
+        <v>99886026.70255776</v>
       </c>
       <c r="BJ4">
-        <v>102195752.6088743</v>
+        <v>101502773.1431575</v>
       </c>
       <c r="BK4">
-        <v>103922724.6146625</v>
+        <v>103126286.119827</v>
       </c>
       <c r="BL4">
-        <v>105687020.9790295</v>
+        <v>104773431.7027442</v>
       </c>
       <c r="BM4">
-        <v>107475477.5890231</v>
+        <v>106447457.3262782</v>
       </c>
       <c r="BN4">
-        <v>109223224.3770097</v>
+        <v>108105121.8485365</v>
       </c>
       <c r="BO4">
-        <v>110925392.1099962</v>
+        <v>109745475.143683</v>
       </c>
       <c r="BP4">
-        <v>112601985.1309537</v>
+        <v>111377148.7704475</v>
       </c>
       <c r="BQ4">
-        <v>114351634.1084109</v>
+        <v>113092438.8190052</v>
       </c>
       <c r="BR4">
-        <v>116111311.8790849</v>
+        <v>114827551.4433166</v>
       </c>
       <c r="BS4">
-        <v>117859656.2865302</v>
+        <v>116561355.6206626</v>
       </c>
       <c r="BT4">
-        <v>119590387.3677865</v>
+        <v>118291691.4083737</v>
       </c>
       <c r="BU4">
-        <v>121285932.0361169</v>
+        <v>120011834.8328568</v>
       </c>
       <c r="BV4">
-        <v>122984589.1765818</v>
+        <v>121771605.3070413</v>
       </c>
       <c r="BW4">
-        <v>124683138.7008304</v>
+        <v>123547586.8788971</v>
       </c>
       <c r="BX4">
-        <v>126412399.8286726</v>
+        <v>125338495.7330481</v>
       </c>
       <c r="BY4">
-        <v>128175982.8058475</v>
+        <v>127145218.4674128</v>
       </c>
       <c r="BZ4">
-        <v>129950432.8193068</v>
+        <v>128957877.3796586</v>
       </c>
       <c r="CA4">
-        <v>131787835.8655626</v>
+        <v>130834188.3793049</v>
       </c>
       <c r="CB4">
-        <v>133654587.7391724</v>
+        <v>132735334.0721236</v>
       </c>
       <c r="CC4">
-        <v>135540141.6588288</v>
+        <v>134642732.4219025</v>
       </c>
       <c r="CD4">
-        <v>137451739.7352042</v>
+        <v>136558428.6069562</v>
       </c>
       <c r="CE4">
-        <v>139392889.1822692</v>
+        <v>138483147.9499978</v>
       </c>
       <c r="CF4">
-        <v>141427303.3915274</v>
+        <v>140480841.7455364</v>
       </c>
       <c r="CG4">
-        <v>143510155.9915772</v>
+        <v>142509750.1995138</v>
       </c>
       <c r="CH4">
-        <v>145608070.5041571</v>
+        <v>144541727.6352226</v>
       </c>
       <c r="CI4">
-        <v>147708492.2029215</v>
+        <v>146572241.6288168</v>
       </c>
       <c r="CJ4">
-        <v>149796241.7546225</v>
+        <v>148595838.4084507</v>
       </c>
       <c r="CK4">
-        <v>151907618.6032751</v>
+        <v>150657644.1447937</v>
       </c>
       <c r="CL4">
-        <v>154025148.7546894</v>
+        <v>152741918.8149469</v>
       </c>
       <c r="CM4">
-        <v>156123478.2376859</v>
+        <v>154818405.6531201</v>
       </c>
       <c r="CN4">
-        <v>158210843.9563891</v>
+        <v>156890857.2112825</v>
       </c>
       <c r="CO4">
-        <v>160290306.9424838</v>
+        <v>158960951.2137501</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694916.105421299</v>
+        <v>1694915.880510496</v>
       </c>
       <c r="E5">
-        <v>996189.9321033305</v>
+        <v>996189.5315787235</v>
       </c>
       <c r="F5">
-        <v>499591.7907484078</v>
+        <v>499591.0178038013</v>
       </c>
       <c r="G5">
-        <v>307493.2599189389</v>
+        <v>307491.8536194687</v>
       </c>
       <c r="H5">
-        <v>288591.1028963471</v>
+        <v>288589.021174796</v>
       </c>
       <c r="I5">
-        <v>205742.3327878075</v>
+        <v>205738.7575899401</v>
       </c>
       <c r="J5">
-        <v>169881.5005548165</v>
+        <v>169875.419654826</v>
       </c>
       <c r="K5">
-        <v>220559.767548438</v>
+        <v>220549.5257116948</v>
       </c>
       <c r="L5">
-        <v>398713.862249254</v>
+        <v>398698.7357886778</v>
       </c>
       <c r="M5">
-        <v>353805.6671117795</v>
+        <v>353782.379294222</v>
       </c>
       <c r="N5">
-        <v>448547.0130641734</v>
+        <v>448511.7055296857</v>
       </c>
       <c r="O5">
-        <v>562817.307493813</v>
+        <v>562772.5514551275</v>
       </c>
       <c r="P5">
-        <v>3572067.55922715</v>
+        <v>3572003.813856287</v>
       </c>
       <c r="Q5">
-        <v>3662263.188527874</v>
+        <v>3662176.924752865</v>
       </c>
       <c r="R5">
-        <v>3757377.930366938</v>
+        <v>3757263.884515786</v>
       </c>
       <c r="S5">
-        <v>12041606.32061084</v>
+        <v>12041458.83903501</v>
       </c>
       <c r="T5">
-        <v>12304603.28292716</v>
+        <v>12304416.53137659</v>
       </c>
       <c r="U5">
-        <v>12573684.83856257</v>
+        <v>12573453.08248088</v>
       </c>
       <c r="V5">
-        <v>12848795.92642045</v>
+        <v>12848513.81036302</v>
       </c>
       <c r="W5">
-        <v>13129668.03735603</v>
+        <v>13129330.80053284</v>
       </c>
       <c r="X5">
-        <v>12601717.91504828</v>
+        <v>12601321.45210701</v>
       </c>
       <c r="Y5">
-        <v>12656930.09396246</v>
+        <v>12656470.82466491</v>
       </c>
       <c r="Z5">
-        <v>12715289.11187751</v>
+        <v>12714763.44674864</v>
       </c>
       <c r="AA5">
-        <v>12777695.82761345</v>
+        <v>12777099.14961608</v>
       </c>
       <c r="AB5">
-        <v>12846472.9357929</v>
+        <v>12845797.97850916</v>
       </c>
       <c r="AC5">
-        <v>2635453.007139329</v>
+        <v>2634687.586549549</v>
       </c>
       <c r="AD5">
-        <v>2732400.429442685</v>
+        <v>2731524.605365505</v>
       </c>
       <c r="AE5">
-        <v>2856386.94659743</v>
+        <v>2855369.876692813</v>
       </c>
       <c r="AF5">
-        <v>3019581.150903672</v>
+        <v>3018378.112596422</v>
       </c>
       <c r="AG5">
-        <v>3236079.467726358</v>
+        <v>3234629.659278358</v>
       </c>
       <c r="AH5">
-        <v>1574126.127399847</v>
+        <v>1572351.892559425</v>
       </c>
       <c r="AI5">
-        <v>1940529.227163894</v>
+        <v>1938337.236298191</v>
       </c>
       <c r="AJ5">
-        <v>2399473.362856152</v>
+        <v>2396758.058384696</v>
       </c>
       <c r="AK5">
-        <v>2956651.196926092</v>
+        <v>2953300.527915218</v>
       </c>
       <c r="AL5">
-        <v>3610938.376132054</v>
+        <v>3606841.574198861</v>
       </c>
       <c r="AM5">
-        <v>4353002.408823878</v>
+        <v>4348059.353512172</v>
       </c>
       <c r="AN5">
-        <v>5164439.822771475</v>
+        <v>5158571.382856572</v>
       </c>
       <c r="AO5">
-        <v>6017614.941675378</v>
+        <v>6010773.508852477</v>
       </c>
       <c r="AP5">
-        <v>6876354.621427797</v>
+        <v>6868533.848543374</v>
       </c>
       <c r="AQ5">
-        <v>7697768.884165006</v>
+        <v>7689011.346493464</v>
       </c>
       <c r="AR5">
-        <v>8435400.060453992</v>
+        <v>8425801.335086191</v>
       </c>
       <c r="AS5">
-        <v>9043476.624398027</v>
+        <v>9033184.488706838</v>
       </c>
       <c r="AT5">
-        <v>9481940.075749964</v>
+        <v>9471148.000129189</v>
       </c>
       <c r="AU5">
-        <v>9721423.671946347</v>
+        <v>9710358.624182526</v>
       </c>
       <c r="AV5">
-        <v>11060064.67064667</v>
+        <v>11048970.35903485</v>
       </c>
       <c r="AW5">
-        <v>11245905.88045514</v>
+        <v>11235023.50320962</v>
       </c>
       <c r="AX5">
-        <v>10867882.72860831</v>
+        <v>10857431.77890137</v>
       </c>
       <c r="AY5">
-        <v>10331105.97343832</v>
+        <v>10321267.51962732</v>
       </c>
       <c r="AZ5">
-        <v>9680256.813945331</v>
+        <v>9671160.973410979</v>
       </c>
       <c r="BA5">
-        <v>8966639.907815475</v>
+        <v>8958358.277297961</v>
       </c>
       <c r="BB5">
-        <v>8053110.979687894</v>
+        <v>8045654.02528979</v>
       </c>
       <c r="BC5">
-        <v>7373098.734081003</v>
+        <v>7366417.682321676</v>
       </c>
       <c r="BD5">
-        <v>6782495.669447008</v>
+        <v>6776488.535062056</v>
       </c>
       <c r="BE5">
-        <v>6319211.921671562</v>
+        <v>6313733.476952948</v>
       </c>
       <c r="BF5">
-        <v>6009374.042587763</v>
+        <v>6004249.25845389</v>
       </c>
       <c r="BG5">
-        <v>5677132.80825527</v>
+        <v>5672172.615817284</v>
       </c>
       <c r="BH5">
-        <v>5697012.102129158</v>
+        <v>5692029.491716137</v>
       </c>
       <c r="BI5">
-        <v>5866680.806143765</v>
+        <v>5861504.919453058</v>
       </c>
       <c r="BJ5">
-        <v>6163021.00656195</v>
+        <v>6157507.354901407</v>
       </c>
       <c r="BK5">
-        <v>6557959.735805106</v>
+        <v>6551995.852101554</v>
       </c>
       <c r="BL5">
-        <v>6880433.508348789</v>
+        <v>6873940.648649902</v>
       </c>
       <c r="BM5">
-        <v>7384633.587020569</v>
+        <v>7377565.874684097</v>
       </c>
       <c r="BN5">
-        <v>7902041.234690766</v>
+        <v>7894383.604282239</v>
       </c>
       <c r="BO5">
-        <v>8407826.032877238</v>
+        <v>8399591.741952265</v>
       </c>
       <c r="BP5">
-        <v>8879585.899200439</v>
+        <v>8870813.758479023</v>
       </c>
       <c r="BQ5">
-        <v>9199053.856678791</v>
+        <v>9189805.019971779</v>
       </c>
       <c r="BR5">
-        <v>9547336.41587764</v>
+        <v>9537690.587457728</v>
       </c>
       <c r="BS5">
-        <v>9813309.679458935</v>
+        <v>9803360.746013347</v>
       </c>
       <c r="BT5">
-        <v>9988793.639188107</v>
+        <v>9978644.817974124</v>
       </c>
       <c r="BU5">
-        <v>10070214.28275299</v>
+        <v>10059972.86770009</v>
       </c>
       <c r="BV5">
-        <v>9962607.181988349</v>
+        <v>9952378.949705608</v>
       </c>
       <c r="BW5">
-        <v>9865015.975077122</v>
+        <v>9854899.353031294</v>
       </c>
       <c r="BX5">
-        <v>9692683.721983138</v>
+        <v>9682763.96420267</v>
       </c>
       <c r="BY5">
-        <v>9461906.696635945</v>
+        <v>9452250.468689993</v>
       </c>
       <c r="BZ5">
-        <v>9192904.014591157</v>
+        <v>9183554.91889154</v>
       </c>
       <c r="CA5">
-        <v>8807367.460731372</v>
+        <v>8798343.111257203</v>
       </c>
       <c r="CB5">
-        <v>8531014.163268013</v>
+        <v>8522305.346322158</v>
       </c>
       <c r="CC5">
-        <v>8284919.077295579</v>
+        <v>8276491.278674653</v>
       </c>
       <c r="CD5">
-        <v>8087938.695067711</v>
+        <v>8079735.891790528</v>
       </c>
       <c r="CE5">
-        <v>7954051.868047893</v>
+        <v>7946002.092063189</v>
       </c>
       <c r="CF5">
-        <v>7777468.622891395</v>
+        <v>7769490.538328215</v>
       </c>
       <c r="CG5">
-        <v>7788491.786866882</v>
+        <v>7780501.456510265</v>
       </c>
       <c r="CH5">
-        <v>7869898.368349074</v>
+        <v>7861815.508868756</v>
       </c>
       <c r="CI5">
-        <v>8013865.342612805</v>
+        <v>8005618.594032336</v>
       </c>
       <c r="CJ5">
-        <v>8209032.349105293</v>
+        <v>8200563.309683725</v>
       </c>
       <c r="CK5">
-        <v>8285836.889195484</v>
+        <v>8277102.835720519</v>
       </c>
       <c r="CL5">
-        <v>8540932.895293918</v>
+        <v>8531908.212982083</v>
       </c>
       <c r="CM5">
-        <v>8803284.686322391</v>
+        <v>8793961.098751282</v>
       </c>
       <c r="CN5">
-        <v>9058423.290337212</v>
+        <v>9048809.025251299</v>
       </c>
       <c r="CO5">
-        <v>9293395.543221945</v>
+        <v>9283513.603499539</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0285184034511</v>
+      </c>
+      <c r="E2">
+        <v>564.6463462258951</v>
+      </c>
+      <c r="F2">
+        <v>1064.88210031217</v>
+      </c>
+      <c r="G2">
+        <v>1435.497018048624</v>
+      </c>
+      <c r="H2">
+        <v>2384.506733964104</v>
+      </c>
+      <c r="I2">
+        <v>2929.805485024658</v>
+      </c>
+      <c r="J2">
+        <v>3538.331158889776</v>
+      </c>
+      <c r="K2">
+        <v>4238.291001298352</v>
+      </c>
+      <c r="L2">
+        <v>4796.285993122247</v>
+      </c>
+      <c r="M2">
+        <v>5481.152939221779</v>
+      </c>
+      <c r="N2">
+        <v>5829.393805569774</v>
+      </c>
+      <c r="O2">
+        <v>6217.449297080471</v>
+      </c>
+      <c r="P2">
+        <v>6998.187241961988</v>
+      </c>
+      <c r="Q2">
+        <v>7795.730376298079</v>
+      </c>
+      <c r="R2">
+        <v>8610.773044770385</v>
+      </c>
+      <c r="S2">
+        <v>10610.44327862107</v>
+      </c>
+      <c r="T2">
+        <v>12602.15132252409</v>
+      </c>
+      <c r="U2">
+        <v>14596.409190898</v>
+      </c>
+      <c r="V2">
+        <v>16606.03754458523</v>
+      </c>
+      <c r="W2">
+        <v>18632.50726356011</v>
+      </c>
+      <c r="X2">
+        <v>20506.44552447433</v>
+      </c>
+      <c r="Y2">
+        <v>22404.58403054739</v>
+      </c>
+      <c r="Z2">
+        <v>24320.80739900139</v>
+      </c>
+      <c r="AA2">
+        <v>26258.66874203826</v>
+      </c>
+      <c r="AB2">
+        <v>28257.15380615582</v>
+      </c>
+      <c r="AC2">
+        <v>29006.47225328433</v>
+      </c>
+      <c r="AD2">
+        <v>29865.891651952</v>
+      </c>
+      <c r="AE2">
+        <v>30831.9497055095</v>
+      </c>
+      <c r="AF2">
+        <v>31788.86704996488</v>
+      </c>
+      <c r="AG2">
+        <v>32706.08015353543</v>
+      </c>
+      <c r="AH2">
+        <v>33433.43361907153</v>
+      </c>
+      <c r="AI2">
+        <v>34135.82487667813</v>
+      </c>
+      <c r="AJ2">
+        <v>34806.10743085619</v>
+      </c>
+      <c r="AK2">
+        <v>35454.9232984896</v>
+      </c>
+      <c r="AL2">
+        <v>36192.01438826922</v>
+      </c>
+      <c r="AM2">
+        <v>37127.27329647949</v>
+      </c>
+      <c r="AN2">
+        <v>38280.79670134112</v>
+      </c>
+      <c r="AO2">
+        <v>39744.49468292374</v>
+      </c>
+      <c r="AP2">
+        <v>41606.02964760766</v>
+      </c>
+      <c r="AQ2">
+        <v>43672.34032286261</v>
+      </c>
+      <c r="AR2">
+        <v>45759.89199304102</v>
+      </c>
+      <c r="AS2">
+        <v>47845.97580223031</v>
+      </c>
+      <c r="AT2">
+        <v>49909.12907178969</v>
+      </c>
+      <c r="AU2">
+        <v>51931.23919575078</v>
+      </c>
+      <c r="AV2">
+        <v>53939.21524692414</v>
+      </c>
+      <c r="AW2">
+        <v>55919.46540819311</v>
+      </c>
+      <c r="AX2">
+        <v>58004.27917444475</v>
+      </c>
+      <c r="AY2">
+        <v>59826.05253889843</v>
+      </c>
+      <c r="AZ2">
+        <v>61287.36494374967</v>
+      </c>
+      <c r="BA2">
+        <v>62596.00300547371</v>
+      </c>
+      <c r="BB2">
+        <v>63897.55881429135</v>
+      </c>
+      <c r="BC2">
+        <v>65178.16471317936</v>
+      </c>
+      <c r="BD2">
+        <v>66390.24172255828</v>
+      </c>
+      <c r="BE2">
+        <v>67520.79413592073</v>
+      </c>
+      <c r="BF2">
+        <v>68604.42552505448</v>
+      </c>
+      <c r="BG2">
+        <v>69660.28849666419</v>
+      </c>
+      <c r="BH2">
+        <v>70764.62214775248</v>
+      </c>
+      <c r="BI2">
+        <v>71994.00434062682</v>
+      </c>
+      <c r="BJ2">
+        <v>73424.13392728253</v>
+      </c>
+      <c r="BK2">
+        <v>75106.66956948298</v>
+      </c>
+      <c r="BL2">
+        <v>77050.13719809309</v>
+      </c>
+      <c r="BM2">
+        <v>79247.99423546089</v>
+      </c>
+      <c r="BN2">
+        <v>81598.0132667959</v>
+      </c>
+      <c r="BO2">
+        <v>83993.59554264156</v>
+      </c>
+      <c r="BP2">
+        <v>86384.6674130531</v>
+      </c>
+      <c r="BQ2">
+        <v>88741.81097335405</v>
+      </c>
+      <c r="BR2">
+        <v>91073.15179978863</v>
+      </c>
+      <c r="BS2">
+        <v>93379.1544954834</v>
+      </c>
+      <c r="BT2">
+        <v>95650.26423681866</v>
+      </c>
+      <c r="BU2">
+        <v>97837.14974660378</v>
+      </c>
+      <c r="BV2">
+        <v>99828.82189683484</v>
+      </c>
+      <c r="BW2">
+        <v>101611.3777727863</v>
+      </c>
+      <c r="BX2">
+        <v>103269.0066976815</v>
+      </c>
+      <c r="BY2">
+        <v>104878.9960821936</v>
+      </c>
+      <c r="BZ2">
+        <v>106452.8675050497</v>
+      </c>
+      <c r="CA2">
+        <v>107962.0375795658</v>
+      </c>
+      <c r="CB2">
+        <v>109422.9994449067</v>
+      </c>
+      <c r="CC2">
+        <v>110863.4296854837</v>
+      </c>
+      <c r="CD2">
+        <v>112328.9276159303</v>
+      </c>
+      <c r="CE2">
+        <v>113880.8527714166</v>
+      </c>
+      <c r="CF2">
+        <v>115569.7972895553</v>
+      </c>
+      <c r="CG2">
+        <v>117465.0897705105</v>
+      </c>
+      <c r="CH2">
+        <v>119594.3534637297</v>
+      </c>
+      <c r="CI2">
+        <v>121950.8840978961</v>
+      </c>
+      <c r="CJ2">
+        <v>124491.954269544</v>
+      </c>
+      <c r="CK2">
+        <v>127124.0585145755</v>
+      </c>
+      <c r="CL2">
+        <v>129796.9059537164</v>
+      </c>
+      <c r="CM2">
+        <v>132465.3742338053</v>
+      </c>
+      <c r="CN2">
+        <v>135109.332852708</v>
+      </c>
+      <c r="CO2">
+        <v>137720.7895973143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.490721496882</v>
+      </c>
+      <c r="E3">
+        <v>35.65014963863928</v>
+      </c>
+      <c r="F3">
+        <v>67.96335009617084</v>
+      </c>
+      <c r="G3">
+        <v>91.57164507497303</v>
+      </c>
+      <c r="H3">
+        <v>154.1261727825233</v>
+      </c>
+      <c r="I3">
+        <v>189.5543516325549</v>
+      </c>
+      <c r="J3">
+        <v>229.1165820795718</v>
+      </c>
+      <c r="K3">
+        <v>274.6666968023985</v>
+      </c>
+      <c r="L3">
+        <v>310.7268943805033</v>
+      </c>
+      <c r="M3">
+        <v>355.2353114885433</v>
+      </c>
+      <c r="N3">
+        <v>376.9863308687164</v>
+      </c>
+      <c r="O3">
+        <v>401.5559608576062</v>
+      </c>
+      <c r="P3">
+        <v>452.4171563053666</v>
+      </c>
+      <c r="Q3">
+        <v>506.7516363289402</v>
+      </c>
+      <c r="R3">
+        <v>564.7100489614595</v>
+      </c>
+      <c r="S3">
+        <v>716.4822539200533</v>
+      </c>
+      <c r="T3">
+        <v>873.9142228471027</v>
+      </c>
+      <c r="U3">
+        <v>1037.823826286961</v>
+      </c>
+      <c r="V3">
+        <v>1209.33903686077</v>
+      </c>
+      <c r="W3">
+        <v>1388.680421026779</v>
+      </c>
+      <c r="X3">
+        <v>1554.104073590673</v>
+      </c>
+      <c r="Y3">
+        <v>1721.632290057929</v>
+      </c>
+      <c r="Z3">
+        <v>1890.706083054462</v>
+      </c>
+      <c r="AA3">
+        <v>2061.650308940819</v>
+      </c>
+      <c r="AB3">
+        <v>2238.029185710037</v>
+      </c>
+      <c r="AC3">
+        <v>2301.170616490917</v>
+      </c>
+      <c r="AD3">
+        <v>2374.267609908377</v>
+      </c>
+      <c r="AE3">
+        <v>2457.003344456696</v>
+      </c>
+      <c r="AF3">
+        <v>2538.792173346939</v>
+      </c>
+      <c r="AG3">
+        <v>2616.839355593958</v>
+      </c>
+      <c r="AH3">
+        <v>2677.564858119007</v>
+      </c>
+      <c r="AI3">
+        <v>2735.891571266582</v>
+      </c>
+      <c r="AJ3">
+        <v>2791.164746875471</v>
+      </c>
+      <c r="AK3">
+        <v>2844.355604355868</v>
+      </c>
+      <c r="AL3">
+        <v>2905.495466980243</v>
+      </c>
+      <c r="AM3">
+        <v>2984.629259973769</v>
+      </c>
+      <c r="AN3">
+        <v>3083.593337959545</v>
+      </c>
+      <c r="AO3">
+        <v>3210.788860519806</v>
+      </c>
+      <c r="AP3">
+        <v>3374.229104370504</v>
+      </c>
+      <c r="AQ3">
+        <v>3556.266567846887</v>
+      </c>
+      <c r="AR3">
+        <v>3740.121680283625</v>
+      </c>
+      <c r="AS3">
+        <v>3923.720003873997</v>
+      </c>
+      <c r="AT3">
+        <v>4105.101389727007</v>
+      </c>
+      <c r="AU3">
+        <v>4282.612189671244</v>
+      </c>
+      <c r="AV3">
+        <v>4458.701332878035</v>
+      </c>
+      <c r="AW3">
+        <v>4632.127559967326</v>
+      </c>
+      <c r="AX3">
+        <v>4814.826487426706</v>
+      </c>
+      <c r="AY3">
+        <v>4973.36009052136</v>
+      </c>
+      <c r="AZ3">
+        <v>5098.824501923761</v>
+      </c>
+      <c r="BA3">
+        <v>5210.214172460735</v>
+      </c>
+      <c r="BB3">
+        <v>5320.847137822972</v>
+      </c>
+      <c r="BC3">
+        <v>5429.433625441703</v>
+      </c>
+      <c r="BD3">
+        <v>5531.623107329537</v>
+      </c>
+      <c r="BE3">
+        <v>5626.226228525451</v>
+      </c>
+      <c r="BF3">
+        <v>5716.404283882372</v>
+      </c>
+      <c r="BG3">
+        <v>5803.917515728233</v>
+      </c>
+      <c r="BH3">
+        <v>5895.712632855882</v>
+      </c>
+      <c r="BI3">
+        <v>5998.788560664746</v>
+      </c>
+      <c r="BJ3">
+        <v>6120.06417781731</v>
+      </c>
+      <c r="BK3">
+        <v>6264.26084574169</v>
+      </c>
+      <c r="BL3">
+        <v>6432.165462926324</v>
+      </c>
+      <c r="BM3">
+        <v>6623.164024235799</v>
+      </c>
+      <c r="BN3">
+        <v>6827.911755097151</v>
+      </c>
+      <c r="BO3">
+        <v>7036.664562462815</v>
+      </c>
+      <c r="BP3">
+        <v>7244.845596848989</v>
+      </c>
+      <c r="BQ3">
+        <v>7449.765709926161</v>
+      </c>
+      <c r="BR3">
+        <v>7652.157591899244</v>
+      </c>
+      <c r="BS3">
+        <v>7852.064659775931</v>
+      </c>
+      <c r="BT3">
+        <v>8048.614592535645</v>
+      </c>
+      <c r="BU3">
+        <v>8237.29916299807</v>
+      </c>
+      <c r="BV3">
+        <v>8407.974628245172</v>
+      </c>
+      <c r="BW3">
+        <v>8559.360421788362</v>
+      </c>
+      <c r="BX3">
+        <v>8699.152875566402</v>
+      </c>
+      <c r="BY3">
+        <v>8834.417032687261</v>
+      </c>
+      <c r="BZ3">
+        <v>8966.20598832607</v>
+      </c>
+      <c r="CA3">
+        <v>9091.907472196144</v>
+      </c>
+      <c r="CB3">
+        <v>9213.017679868311</v>
+      </c>
+      <c r="CC3">
+        <v>9332.066041294756</v>
+      </c>
+      <c r="CD3">
+        <v>9453.220222376196</v>
+      </c>
+      <c r="CE3">
+        <v>9582.088606378276</v>
+      </c>
+      <c r="CF3">
+        <v>9723.29627493622</v>
+      </c>
+      <c r="CG3">
+        <v>9883.167608816035</v>
+      </c>
+      <c r="CH3">
+        <v>10064.2271371822</v>
+      </c>
+      <c r="CI3">
+        <v>10265.86146330769</v>
+      </c>
+      <c r="CJ3">
+        <v>10484.16437575731</v>
+      </c>
+      <c r="CK3">
+        <v>10710.59433169544</v>
+      </c>
+      <c r="CL3">
+        <v>10940.53689878962</v>
+      </c>
+      <c r="CM3">
+        <v>11169.86741970603</v>
+      </c>
+      <c r="CN3">
+        <v>11396.74591895181</v>
+      </c>
+      <c r="CO3">
+        <v>11620.44214122091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474419.10068802</v>
+      </c>
+      <c r="E4">
+        <v>53251708.23499861</v>
+      </c>
+      <c r="F4">
+        <v>82628032.43536809</v>
+      </c>
+      <c r="G4">
+        <v>112095879.9519247</v>
+      </c>
+      <c r="H4">
+        <v>138928909.9031197</v>
+      </c>
+      <c r="I4">
+        <v>165248770.1939155</v>
+      </c>
+      <c r="J4">
+        <v>194277192.7206469</v>
+      </c>
+      <c r="K4">
+        <v>227126488.0261134</v>
+      </c>
+      <c r="L4">
+        <v>259753932.4812815</v>
+      </c>
+      <c r="M4">
+        <v>294463282.0002236</v>
+      </c>
+      <c r="N4">
+        <v>332029530.427066</v>
+      </c>
+      <c r="O4">
+        <v>366886344.2962246</v>
+      </c>
+      <c r="P4">
+        <v>405605224.0651113</v>
+      </c>
+      <c r="Q4">
+        <v>445482631.0615907</v>
+      </c>
+      <c r="R4">
+        <v>486503277.8227275</v>
+      </c>
+      <c r="S4">
+        <v>532145256.7109631</v>
+      </c>
+      <c r="T4">
+        <v>578691278.9536334</v>
+      </c>
+      <c r="U4">
+        <v>626141604.2522459</v>
+      </c>
+      <c r="V4">
+        <v>674493435.5487615</v>
+      </c>
+      <c r="W4">
+        <v>723742564.8335942</v>
+      </c>
+      <c r="X4">
+        <v>774161728.3966496</v>
+      </c>
+      <c r="Y4">
+        <v>825926070.410823</v>
+      </c>
+      <c r="Z4">
+        <v>879034150.269516</v>
+      </c>
+      <c r="AA4">
+        <v>933485620.5277555</v>
+      </c>
+      <c r="AB4">
+        <v>989281632.4085186</v>
+      </c>
+      <c r="AC4">
+        <v>1044210336.958305</v>
+      </c>
+      <c r="AD4">
+        <v>1100489109.979</v>
+      </c>
+      <c r="AE4">
+        <v>1158118031.331841</v>
+      </c>
+      <c r="AF4">
+        <v>1217094741.221481</v>
+      </c>
+      <c r="AG4">
+        <v>1277417916.628566</v>
+      </c>
+      <c r="AH4">
+        <v>1338726790.59251</v>
+      </c>
+      <c r="AI4">
+        <v>1401408851.331958</v>
+      </c>
+      <c r="AJ4">
+        <v>1465468205.032987</v>
+      </c>
+      <c r="AK4">
+        <v>1530912092.13115</v>
+      </c>
+      <c r="AL4">
+        <v>1597751853.581676</v>
+      </c>
+      <c r="AM4">
+        <v>1665969510.025306</v>
+      </c>
+      <c r="AN4">
+        <v>1735568490.766107</v>
+      </c>
+      <c r="AO4">
+        <v>1806563290.576294</v>
+      </c>
+      <c r="AP4">
+        <v>1878967273.234652</v>
+      </c>
+      <c r="AQ4">
+        <v>1952750018.791726</v>
+      </c>
+      <c r="AR4">
+        <v>2027867503.943794</v>
+      </c>
+      <c r="AS4">
+        <v>2104314832.759284</v>
+      </c>
+      <c r="AT4">
+        <v>2182087391.952703</v>
+      </c>
+      <c r="AU4">
+        <v>2261181217.478089</v>
+      </c>
+      <c r="AV4">
+        <v>2341797886.227213</v>
+      </c>
+      <c r="AW4">
+        <v>2423879497.045063</v>
+      </c>
+      <c r="AX4">
+        <v>2507463833.267692</v>
+      </c>
+      <c r="AY4">
+        <v>2592412916.659469</v>
+      </c>
+      <c r="AZ4">
+        <v>2678708616.094076</v>
+      </c>
+      <c r="BA4">
+        <v>2766384252.768998</v>
+      </c>
+      <c r="BB4">
+        <v>2855517569.608272</v>
+      </c>
+      <c r="BC4">
+        <v>2946150514.966064</v>
+      </c>
+      <c r="BD4">
+        <v>3038279496.617565</v>
+      </c>
+      <c r="BE4">
+        <v>3131904104.606661</v>
+      </c>
+      <c r="BF4">
+        <v>3227033026.363791</v>
+      </c>
+      <c r="BG4">
+        <v>3323711286.23624</v>
+      </c>
+      <c r="BH4">
+        <v>3421988854.286154</v>
+      </c>
+      <c r="BI4">
+        <v>3521874880.988711</v>
+      </c>
+      <c r="BJ4">
+        <v>3623377654.131869</v>
+      </c>
+      <c r="BK4">
+        <v>3726503940.251696</v>
+      </c>
+      <c r="BL4">
+        <v>3831277371.95444</v>
+      </c>
+      <c r="BM4">
+        <v>3937724829.280718</v>
+      </c>
+      <c r="BN4">
+        <v>4045829951.129254</v>
+      </c>
+      <c r="BO4">
+        <v>4155575426.272937</v>
+      </c>
+      <c r="BP4">
+        <v>4266952575.043385</v>
+      </c>
+      <c r="BQ4">
+        <v>4380045013.86239</v>
+      </c>
+      <c r="BR4">
+        <v>4494872565.305706</v>
+      </c>
+      <c r="BS4">
+        <v>4611433920.926369</v>
+      </c>
+      <c r="BT4">
+        <v>4729725612.334743</v>
+      </c>
+      <c r="BU4">
+        <v>4849737447.1676</v>
+      </c>
+      <c r="BV4">
+        <v>4971509052.474641</v>
+      </c>
+      <c r="BW4">
+        <v>5095056639.353538</v>
+      </c>
+      <c r="BX4">
+        <v>5220395135.086586</v>
+      </c>
+      <c r="BY4">
+        <v>5347540353.553999</v>
+      </c>
+      <c r="BZ4">
+        <v>5476498230.933658</v>
+      </c>
+      <c r="CA4">
+        <v>5607332419.312963</v>
+      </c>
+      <c r="CB4">
+        <v>5740067753.385086</v>
+      </c>
+      <c r="CC4">
+        <v>5874710485.806989</v>
+      </c>
+      <c r="CD4">
+        <v>6011268914.413945</v>
+      </c>
+      <c r="CE4">
+        <v>6149752062.363943</v>
+      </c>
+      <c r="CF4">
+        <v>6290232904.10948</v>
+      </c>
+      <c r="CG4">
+        <v>6432742654.308993</v>
+      </c>
+      <c r="CH4">
+        <v>6577284381.944216</v>
+      </c>
+      <c r="CI4">
+        <v>6723856623.573032</v>
+      </c>
+      <c r="CJ4">
+        <v>6872452461.981483</v>
+      </c>
+      <c r="CK4">
+        <v>7023110106.126277</v>
+      </c>
+      <c r="CL4">
+        <v>7175852024.941224</v>
+      </c>
+      <c r="CM4">
+        <v>7330670430.594344</v>
+      </c>
+      <c r="CN4">
+        <v>7487561287.805627</v>
+      </c>
+      <c r="CO4">
+        <v>7646522239.019377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694915.880510496</v>
+      </c>
+      <c r="E5">
+        <v>2691105.412089219</v>
+      </c>
+      <c r="F5">
+        <v>3190696.42989302</v>
+      </c>
+      <c r="G5">
+        <v>3498188.283512489</v>
+      </c>
+      <c r="H5">
+        <v>3786777.304687285</v>
+      </c>
+      <c r="I5">
+        <v>3992516.062277225</v>
+      </c>
+      <c r="J5">
+        <v>4162391.481932051</v>
+      </c>
+      <c r="K5">
+        <v>4382941.007643746</v>
+      </c>
+      <c r="L5">
+        <v>4781639.743432424</v>
+      </c>
+      <c r="M5">
+        <v>5135422.122726646</v>
+      </c>
+      <c r="N5">
+        <v>5583933.828256332</v>
+      </c>
+      <c r="O5">
+        <v>6146706.37971146</v>
+      </c>
+      <c r="P5">
+        <v>9718710.193567747</v>
+      </c>
+      <c r="Q5">
+        <v>13380887.11832061</v>
+      </c>
+      <c r="R5">
+        <v>17138151.0028364</v>
+      </c>
+      <c r="S5">
+        <v>29179609.84187141</v>
+      </c>
+      <c r="T5">
+        <v>41484026.373248</v>
+      </c>
+      <c r="U5">
+        <v>54057479.45572888</v>
+      </c>
+      <c r="V5">
+        <v>66905993.2660919</v>
+      </c>
+      <c r="W5">
+        <v>80035324.06662473</v>
+      </c>
+      <c r="X5">
+        <v>92636645.51873174</v>
+      </c>
+      <c r="Y5">
+        <v>105293116.3433966</v>
+      </c>
+      <c r="Z5">
+        <v>118007879.7901453</v>
+      </c>
+      <c r="AA5">
+        <v>130784978.9397614</v>
+      </c>
+      <c r="AB5">
+        <v>143630776.9182705</v>
+      </c>
+      <c r="AC5">
+        <v>146265464.5048201</v>
+      </c>
+      <c r="AD5">
+        <v>148996989.1101856</v>
+      </c>
+      <c r="AE5">
+        <v>151852358.9868784</v>
+      </c>
+      <c r="AF5">
+        <v>154870737.0994748</v>
+      </c>
+      <c r="AG5">
+        <v>158105366.7587532</v>
+      </c>
+      <c r="AH5">
+        <v>159677718.6513126</v>
+      </c>
+      <c r="AI5">
+        <v>161616055.8876108</v>
+      </c>
+      <c r="AJ5">
+        <v>164012813.9459955</v>
+      </c>
+      <c r="AK5">
+        <v>166966114.4739107</v>
+      </c>
+      <c r="AL5">
+        <v>170572956.0481096</v>
+      </c>
+      <c r="AM5">
+        <v>174921015.4016218</v>
+      </c>
+      <c r="AN5">
+        <v>180079586.7844783</v>
+      </c>
+      <c r="AO5">
+        <v>186090360.2933308</v>
+      </c>
+      <c r="AP5">
+        <v>192958894.1418742</v>
+      </c>
+      <c r="AQ5">
+        <v>200647905.4883676</v>
+      </c>
+      <c r="AR5">
+        <v>209073706.8234538</v>
+      </c>
+      <c r="AS5">
+        <v>218106891.3121607</v>
+      </c>
+      <c r="AT5">
+        <v>227578039.3122899</v>
+      </c>
+      <c r="AU5">
+        <v>237288397.9364724</v>
+      </c>
+      <c r="AV5">
+        <v>248337368.2955073</v>
+      </c>
+      <c r="AW5">
+        <v>259572391.7987169</v>
+      </c>
+      <c r="AX5">
+        <v>270429823.5776182</v>
+      </c>
+      <c r="AY5">
+        <v>280751091.0972456</v>
+      </c>
+      <c r="AZ5">
+        <v>290422252.0706565</v>
+      </c>
+      <c r="BA5">
+        <v>299380610.3479545</v>
+      </c>
+      <c r="BB5">
+        <v>307426264.3732443</v>
+      </c>
+      <c r="BC5">
+        <v>314792682.055566</v>
+      </c>
+      <c r="BD5">
+        <v>321569170.590628</v>
+      </c>
+      <c r="BE5">
+        <v>327882904.067581</v>
+      </c>
+      <c r="BF5">
+        <v>333887153.3260349</v>
+      </c>
+      <c r="BG5">
+        <v>339559325.9418522</v>
+      </c>
+      <c r="BH5">
+        <v>345251355.4335684</v>
+      </c>
+      <c r="BI5">
+        <v>351112860.3530214</v>
+      </c>
+      <c r="BJ5">
+        <v>357270367.7079229</v>
+      </c>
+      <c r="BK5">
+        <v>363822363.5600244</v>
+      </c>
+      <c r="BL5">
+        <v>370696304.2086744</v>
+      </c>
+      <c r="BM5">
+        <v>378073870.0833585</v>
+      </c>
+      <c r="BN5">
+        <v>385968253.6876407</v>
+      </c>
+      <c r="BO5">
+        <v>394367845.429593</v>
+      </c>
+      <c r="BP5">
+        <v>403238659.188072</v>
+      </c>
+      <c r="BQ5">
+        <v>412428464.2080438</v>
+      </c>
+      <c r="BR5">
+        <v>421966154.7955015</v>
+      </c>
+      <c r="BS5">
+        <v>431769515.5415148</v>
+      </c>
+      <c r="BT5">
+        <v>441748160.359489</v>
+      </c>
+      <c r="BU5">
+        <v>451808133.2271891</v>
+      </c>
+      <c r="BV5">
+        <v>461760512.1768947</v>
+      </c>
+      <c r="BW5">
+        <v>471615411.5299259</v>
+      </c>
+      <c r="BX5">
+        <v>481298175.4941286</v>
+      </c>
+      <c r="BY5">
+        <v>490750425.9628186</v>
+      </c>
+      <c r="BZ5">
+        <v>499933980.8817101</v>
+      </c>
+      <c r="CA5">
+        <v>508732323.9929673</v>
+      </c>
+      <c r="CB5">
+        <v>517254629.3392895</v>
+      </c>
+      <c r="CC5">
+        <v>525531120.6179641</v>
+      </c>
+      <c r="CD5">
+        <v>533610856.5097547</v>
+      </c>
+      <c r="CE5">
+        <v>541556858.6018178</v>
+      </c>
+      <c r="CF5">
+        <v>549326349.140146</v>
+      </c>
+      <c r="CG5">
+        <v>557106850.5966563</v>
+      </c>
+      <c r="CH5">
+        <v>564968666.1055251</v>
+      </c>
+      <c r="CI5">
+        <v>572974284.6995574</v>
+      </c>
+      <c r="CJ5">
+        <v>581174848.0092411</v>
+      </c>
+      <c r="CK5">
+        <v>589451950.8449616</v>
+      </c>
+      <c r="CL5">
+        <v>597983859.0579437</v>
+      </c>
+      <c r="CM5">
+        <v>606777820.156695</v>
+      </c>
+      <c r="CN5">
+        <v>615826629.1819463</v>
+      </c>
+      <c r="CO5">
+        <v>625110142.7854458</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Act/Lifetime/Results_world_act_life_Avg.xlsx
+++ b/Results/Act/Lifetime/Results_world_act_life_Avg.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285184034511</v>
+        <v>1072.353295692879</v>
       </c>
       <c r="E2">
-        <v>302.617827822444</v>
+        <v>1397.697139652294</v>
       </c>
       <c r="F2">
-        <v>500.2357540862754</v>
+        <v>1396.973433067993</v>
       </c>
       <c r="G2">
-        <v>370.6149177364533</v>
+        <v>1327.492088360194</v>
       </c>
       <c r="H2">
-        <v>949.0097159154795</v>
+        <v>1780.456358358082</v>
       </c>
       <c r="I2">
-        <v>545.2987510605542</v>
+        <v>1284.475738561907</v>
       </c>
       <c r="J2">
-        <v>608.5256738651177</v>
+        <v>2324.134751137587</v>
       </c>
       <c r="K2">
-        <v>699.9598424085758</v>
+        <v>2310.501438880624</v>
       </c>
       <c r="L2">
-        <v>557.994991823894</v>
+        <v>2055.88251925225</v>
       </c>
       <c r="M2">
-        <v>684.8669460995321</v>
+        <v>1894.954773564547</v>
       </c>
       <c r="N2">
-        <v>348.2408663479948</v>
+        <v>4053.663396661478</v>
       </c>
       <c r="O2">
-        <v>388.0554915106979</v>
+        <v>2460.661291830219</v>
       </c>
       <c r="P2">
-        <v>780.7379448815167</v>
+        <v>4931.980183033452</v>
       </c>
       <c r="Q2">
-        <v>797.5431343360915</v>
+        <v>5322.699654513117</v>
       </c>
       <c r="R2">
-        <v>815.042668472306</v>
+        <v>5718.854023854856</v>
       </c>
       <c r="S2">
-        <v>1999.670233850687</v>
+        <v>12503.77747965547</v>
       </c>
       <c r="T2">
-        <v>1991.708043903017</v>
+        <v>13387.85082123229</v>
       </c>
       <c r="U2">
-        <v>1994.25786837391</v>
+        <v>14281.52445103501</v>
       </c>
       <c r="V2">
-        <v>2009.628353687229</v>
+        <v>15192.04259330825</v>
       </c>
       <c r="W2">
-        <v>2026.469718974883</v>
+        <v>16115.96600258726</v>
       </c>
       <c r="X2">
-        <v>1873.938260914215</v>
+        <v>16194.63490865154</v>
       </c>
       <c r="Y2">
-        <v>1898.138506073064</v>
+        <v>17083.59080246898</v>
       </c>
       <c r="Z2">
-        <v>1916.223368454001</v>
+        <v>17979.9011828671</v>
       </c>
       <c r="AA2">
-        <v>1937.861343036873</v>
+        <v>18894.98023593718</v>
       </c>
       <c r="AB2">
-        <v>1998.485064117554</v>
+        <v>19835.97117993856</v>
       </c>
       <c r="AC2">
-        <v>749.3184471285144</v>
+        <v>9274.876520044618</v>
       </c>
       <c r="AD2">
-        <v>859.4193986676687</v>
+        <v>9532.90480893649</v>
       </c>
       <c r="AE2">
-        <v>966.0580535575029</v>
+        <v>9864.01774676778</v>
       </c>
       <c r="AF2">
-        <v>956.9173444553755</v>
+        <v>10184.55480148741</v>
       </c>
       <c r="AG2">
-        <v>917.2131035705557</v>
+        <v>10559.42529254623</v>
       </c>
       <c r="AH2">
-        <v>727.3534655360984</v>
+        <v>6771.848656011638</v>
       </c>
       <c r="AI2">
-        <v>702.3912576065931</v>
+        <v>6835.321037099697</v>
       </c>
       <c r="AJ2">
-        <v>670.2825541780678</v>
+        <v>7166.631508162252</v>
       </c>
       <c r="AK2">
-        <v>648.8158676334045</v>
+        <v>7759.326183602462</v>
       </c>
       <c r="AL2">
-        <v>737.0910897796194</v>
+        <v>8336.461818313506</v>
       </c>
       <c r="AM2">
-        <v>935.2589082102712</v>
+        <v>11044.55847485559</v>
       </c>
       <c r="AN2">
-        <v>1153.523404861627</v>
+        <v>12441.77413334231</v>
       </c>
       <c r="AO2">
-        <v>1463.697981582617</v>
+        <v>14378.67869776967</v>
       </c>
       <c r="AP2">
-        <v>1861.534964683922</v>
+        <v>16878.17027769432</v>
       </c>
       <c r="AQ2">
-        <v>2066.310675254947</v>
+        <v>18669.45809432919</v>
       </c>
       <c r="AR2">
-        <v>2087.551670178408</v>
+        <v>22981.07668992534</v>
       </c>
       <c r="AS2">
-        <v>2086.083809189288</v>
+        <v>23971.37023481244</v>
       </c>
       <c r="AT2">
-        <v>2063.153269559384</v>
+        <v>24802.99732244884</v>
       </c>
       <c r="AU2">
-        <v>2022.110123961084</v>
+        <v>25482.82038925307</v>
       </c>
       <c r="AV2">
-        <v>2007.976051173363</v>
+        <v>26172.83913938083</v>
       </c>
       <c r="AW2">
-        <v>1980.250161268977</v>
+        <v>27414.32540882629</v>
       </c>
       <c r="AX2">
-        <v>2084.813766251633</v>
+        <v>27138.93639940287</v>
       </c>
       <c r="AY2">
-        <v>1821.773364453686</v>
+        <v>25377.86381619268</v>
       </c>
       <c r="AZ2">
-        <v>1461.312404851243</v>
+        <v>22517.72673325493</v>
       </c>
       <c r="BA2">
-        <v>1308.638061724038</v>
+        <v>21098.63861664585</v>
       </c>
       <c r="BB2">
-        <v>1301.555808817641</v>
+        <v>20216.67603421636</v>
       </c>
       <c r="BC2">
-        <v>1280.605898888013</v>
+        <v>20081.00806100281</v>
       </c>
       <c r="BD2">
-        <v>1212.077009378911</v>
+        <v>19440.46143714973</v>
       </c>
       <c r="BE2">
-        <v>1130.552413362454</v>
+        <v>18460.96432026254</v>
       </c>
       <c r="BF2">
-        <v>1083.631389133755</v>
+        <v>18140.21304260692</v>
       </c>
       <c r="BG2">
-        <v>1055.862971609707</v>
+        <v>17963.83647585458</v>
       </c>
       <c r="BH2">
-        <v>1104.333651088296</v>
+        <v>18815.63982574294</v>
       </c>
       <c r="BI2">
-        <v>1229.38219287434</v>
+        <v>20123.83979435458</v>
       </c>
       <c r="BJ2">
-        <v>1430.129586655711</v>
+        <v>21919.73256853574</v>
       </c>
       <c r="BK2">
-        <v>1682.535642200454</v>
+        <v>23883.02251145838</v>
       </c>
       <c r="BL2">
-        <v>1943.467628610105</v>
+        <v>25623.94081547318</v>
       </c>
       <c r="BM2">
-        <v>2197.857037367811</v>
+        <v>27954.56778735401</v>
       </c>
       <c r="BN2">
-        <v>2350.019031335</v>
+        <v>30355.40261975654</v>
       </c>
       <c r="BO2">
-        <v>2395.582275845659</v>
+        <v>32611.58445037794</v>
       </c>
       <c r="BP2">
-        <v>2391.071870411548</v>
+        <v>34146.88689519095</v>
       </c>
       <c r="BQ2">
-        <v>2357.143560300943</v>
+        <v>34891.5727677519</v>
       </c>
       <c r="BR2">
-        <v>2331.340826434585</v>
+        <v>35675.16333911721</v>
       </c>
       <c r="BS2">
-        <v>2306.002695694771</v>
+        <v>36312.21076063113</v>
       </c>
       <c r="BT2">
-        <v>2271.109741335263</v>
+        <v>36540.37801449133</v>
       </c>
       <c r="BU2">
-        <v>2186.885509785121</v>
+        <v>35911.57011788043</v>
       </c>
       <c r="BV2">
-        <v>1991.672150231059</v>
+        <v>34210.25787355839</v>
       </c>
       <c r="BW2">
-        <v>1782.555875951441</v>
+        <v>32528.8442354809</v>
       </c>
       <c r="BX2">
-        <v>1657.628924895234</v>
+        <v>31343.77141958112</v>
       </c>
       <c r="BY2">
-        <v>1609.989384512058</v>
+        <v>30716.99926326832</v>
       </c>
       <c r="BZ2">
-        <v>1573.87142285613</v>
+        <v>30313.08139966867</v>
       </c>
       <c r="CA2">
-        <v>1509.170074516072</v>
+        <v>29661.87144891542</v>
       </c>
       <c r="CB2">
-        <v>1460.961865340927</v>
+        <v>29246.96719183742</v>
       </c>
       <c r="CC2">
-        <v>1440.43024057695</v>
+        <v>29176.23747776269</v>
       </c>
       <c r="CD2">
-        <v>1465.497930446688</v>
+        <v>29606.84253575559</v>
       </c>
       <c r="CE2">
-        <v>1551.925155486261</v>
+        <v>30601.52982148424</v>
       </c>
       <c r="CF2">
-        <v>1688.944518138659</v>
+        <v>31815.66021476475</v>
       </c>
       <c r="CG2">
-        <v>1895.292480955234</v>
+        <v>33589.9244358727</v>
       </c>
       <c r="CH2">
-        <v>2129.263693219189</v>
+        <v>35525.20814646035</v>
       </c>
       <c r="CI2">
-        <v>2356.530634166462</v>
+        <v>37560.34104772157</v>
       </c>
       <c r="CJ2">
-        <v>2541.070171647829</v>
+        <v>39720.78912721969</v>
       </c>
       <c r="CK2">
-        <v>2632.104245031508</v>
+        <v>41446.8227353573</v>
       </c>
       <c r="CL2">
-        <v>2672.847439140884</v>
+        <v>43256.16286796908</v>
       </c>
       <c r="CM2">
-        <v>2668.468280088894</v>
+        <v>44574.91062180322</v>
       </c>
       <c r="CN2">
-        <v>2643.958618902758</v>
+        <v>45448.04477245767</v>
       </c>
       <c r="CO2">
-        <v>2611.456744606297</v>
+        <v>46047.79029759407</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.490721496882</v>
+        <v>70.9098667458114</v>
       </c>
       <c r="E3">
-        <v>19.15942814175727</v>
+        <v>92.70278889285035</v>
       </c>
       <c r="F3">
-        <v>32.31320045753156</v>
+        <v>92.5359210034085</v>
       </c>
       <c r="G3">
-        <v>23.60829497880219</v>
+        <v>87.86820869455887</v>
       </c>
       <c r="H3">
-        <v>62.55452770755029</v>
+        <v>118.3889257459181</v>
       </c>
       <c r="I3">
-        <v>35.42817885003157</v>
+        <v>85.06524538016218</v>
       </c>
       <c r="J3">
-        <v>39.56223044701692</v>
+        <v>154.7800997377381</v>
       </c>
       <c r="K3">
-        <v>45.55011472282668</v>
+        <v>153.7122243550211</v>
       </c>
       <c r="L3">
-        <v>36.06019757810478</v>
+        <v>136.6564609713505</v>
       </c>
       <c r="M3">
-        <v>44.50841710804004</v>
+        <v>125.7707567801511</v>
       </c>
       <c r="N3">
-        <v>21.75101938017308</v>
+        <v>270.669271556806</v>
       </c>
       <c r="O3">
-        <v>24.5696299888898</v>
+        <v>163.8156462334332</v>
       </c>
       <c r="P3">
-        <v>50.86119544776037</v>
+        <v>329.6777153042379</v>
       </c>
       <c r="Q3">
-        <v>54.33448002357361</v>
+        <v>355.8925757768164</v>
       </c>
       <c r="R3">
-        <v>57.95841263251936</v>
+        <v>382.4756342517871</v>
       </c>
       <c r="S3">
-        <v>151.7722049585937</v>
+        <v>837.9975716236806</v>
       </c>
       <c r="T3">
-        <v>157.4319689270494</v>
+        <v>897.3280160229226</v>
       </c>
       <c r="U3">
-        <v>163.9096034398587</v>
+        <v>957.3082369243054</v>
       </c>
       <c r="V3">
-        <v>171.5152105738091</v>
+        <v>1018.428864416772</v>
       </c>
       <c r="W3">
-        <v>179.3413841660082</v>
+        <v>1080.456966172892</v>
       </c>
       <c r="X3">
-        <v>165.4236525638946</v>
+        <v>1085.726356490448</v>
       </c>
       <c r="Y3">
-        <v>167.5282164672555</v>
+        <v>1145.433847300258</v>
       </c>
       <c r="Z3">
-        <v>169.0737929965332</v>
+        <v>1205.638897725874</v>
       </c>
       <c r="AA3">
-        <v>170.9442258863566</v>
+        <v>1267.114020856015</v>
       </c>
       <c r="AB3">
-        <v>176.378876769218</v>
+        <v>1330.342667918523</v>
       </c>
       <c r="AC3">
-        <v>63.14143078088068</v>
+        <v>621.1844737261076</v>
       </c>
       <c r="AD3">
-        <v>73.09699341746011</v>
+        <v>638.5344824115559</v>
       </c>
       <c r="AE3">
-        <v>82.7357345483186</v>
+        <v>660.8308924368475</v>
       </c>
       <c r="AF3">
-        <v>81.78882889024261</v>
+        <v>682.4076794276223</v>
       </c>
       <c r="AG3">
-        <v>78.04718224701905</v>
+        <v>707.6589615660836</v>
       </c>
       <c r="AH3">
-        <v>60.72550252504862</v>
+        <v>453.3399311568587</v>
       </c>
       <c r="AI3">
-        <v>58.32671314757486</v>
+        <v>457.6076189312213</v>
       </c>
       <c r="AJ3">
-        <v>55.27317560888937</v>
+        <v>480.0066767806351</v>
       </c>
       <c r="AK3">
-        <v>53.19085748039748</v>
+        <v>520.0947753887361</v>
       </c>
       <c r="AL3">
-        <v>61.13986262437439</v>
+        <v>559.1188142578612</v>
       </c>
       <c r="AM3">
-        <v>79.13379299352648</v>
+        <v>741.4269490232593</v>
       </c>
       <c r="AN3">
-        <v>98.96407798577548</v>
+        <v>835.9285561235457</v>
       </c>
       <c r="AO3">
-        <v>127.1955225602612</v>
+        <v>966.973190731153</v>
       </c>
       <c r="AP3">
-        <v>163.4402438506976</v>
+        <v>1136.1147334345</v>
       </c>
       <c r="AQ3">
-        <v>182.0374634763832</v>
+        <v>1257.301627118642</v>
       </c>
       <c r="AR3">
-        <v>183.8551124367383</v>
+        <v>1547.302395027694</v>
       </c>
       <c r="AS3">
-        <v>183.5983235903722</v>
+        <v>1614.190103975942</v>
       </c>
       <c r="AT3">
-        <v>181.3813858530097</v>
+        <v>1670.34750678821</v>
       </c>
       <c r="AU3">
-        <v>177.5107999442371</v>
+        <v>1716.242226224635</v>
       </c>
       <c r="AV3">
-        <v>176.0891432067907</v>
+        <v>1762.846447965382</v>
       </c>
       <c r="AW3">
-        <v>173.4262270892911</v>
+        <v>1846.389023978494</v>
       </c>
       <c r="AX3">
-        <v>182.69892745938</v>
+        <v>1827.632793242692</v>
       </c>
       <c r="AY3">
-        <v>158.5336030946535</v>
+        <v>1708.27971193741</v>
       </c>
       <c r="AZ3">
-        <v>125.4644114024011</v>
+        <v>1514.507753754608</v>
       </c>
       <c r="BA3">
-        <v>111.3896705369742</v>
+        <v>1418.331047619856</v>
       </c>
       <c r="BB3">
-        <v>110.6329653622369</v>
+        <v>1359.03755870426</v>
       </c>
       <c r="BC3">
-        <v>108.5864876187308</v>
+        <v>1349.784623740363</v>
       </c>
       <c r="BD3">
-        <v>102.1894818878332</v>
+        <v>1306.33215130483</v>
       </c>
       <c r="BE3">
-        <v>94.60312119591445</v>
+        <v>1239.912604317023</v>
       </c>
       <c r="BF3">
-        <v>90.17805535692079</v>
+        <v>1218.09091171905</v>
       </c>
       <c r="BG3">
-        <v>87.51323184586069</v>
+        <v>1206.396780977021</v>
       </c>
       <c r="BH3">
-        <v>91.79511712764966</v>
+        <v>1263.957050052245</v>
       </c>
       <c r="BI3">
-        <v>103.0759278088637</v>
+        <v>1352.407483074634</v>
       </c>
       <c r="BJ3">
-        <v>121.2756171525646</v>
+        <v>1473.869612379449</v>
       </c>
       <c r="BK3">
-        <v>144.1966679243798</v>
+        <v>1606.655716870921</v>
       </c>
       <c r="BL3">
-        <v>167.9046171846336</v>
+        <v>1724.575517032822</v>
       </c>
       <c r="BM3">
-        <v>190.9985613094751</v>
+        <v>1882.227145680058</v>
       </c>
       <c r="BN3">
-        <v>204.747730861352</v>
+        <v>2044.633212441249</v>
       </c>
       <c r="BO3">
-        <v>208.752807365664</v>
+        <v>2197.246131956082</v>
       </c>
       <c r="BP3">
-        <v>208.1810343861733</v>
+        <v>2301.044457912811</v>
       </c>
       <c r="BQ3">
-        <v>204.9201130771714</v>
+        <v>2351.407454287733</v>
       </c>
       <c r="BR3">
-        <v>202.3918819730835</v>
+        <v>2404.31135418801</v>
       </c>
       <c r="BS3">
-        <v>199.9070678766878</v>
+        <v>2447.301378689442</v>
       </c>
       <c r="BT3">
-        <v>196.5499327597137</v>
+        <v>2462.612576760546</v>
       </c>
       <c r="BU3">
-        <v>188.6845704624241</v>
+        <v>2419.899330777072</v>
       </c>
       <c r="BV3">
-        <v>170.6754652471033</v>
+        <v>2304.688258056013</v>
       </c>
       <c r="BW3">
-        <v>151.3857935431905</v>
+        <v>2190.708606091831</v>
       </c>
       <c r="BX3">
-        <v>139.7924537780395</v>
+        <v>2110.34784961533</v>
       </c>
       <c r="BY3">
-        <v>135.2641571208593</v>
+        <v>2067.799982631145</v>
       </c>
       <c r="BZ3">
-        <v>131.7889556388097</v>
+        <v>2040.347487654176</v>
       </c>
       <c r="CA3">
-        <v>125.7014838700736</v>
+        <v>1996.260681505848</v>
       </c>
       <c r="CB3">
-        <v>121.1102076721679</v>
+        <v>1968.060547873602</v>
       </c>
       <c r="CC3">
-        <v>119.0483614264442</v>
+        <v>1963.165155080213</v>
       </c>
       <c r="CD3">
-        <v>121.1541810814403</v>
+        <v>1992.216015975052</v>
       </c>
       <c r="CE3">
-        <v>128.8683840020805</v>
+        <v>2059.46107353669</v>
       </c>
       <c r="CF3">
-        <v>141.207668557943</v>
+        <v>2141.699809439252</v>
       </c>
       <c r="CG3">
-        <v>159.8713338798143</v>
+        <v>2261.717592178501</v>
       </c>
       <c r="CH3">
-        <v>181.0595283661701</v>
+        <v>2392.631977995993</v>
       </c>
       <c r="CI3">
-        <v>201.634326125484</v>
+        <v>2530.301941049948</v>
       </c>
       <c r="CJ3">
-        <v>218.302912449624</v>
+        <v>2676.454125149572</v>
       </c>
       <c r="CK3">
-        <v>226.4299559381263</v>
+        <v>2793.407254801385</v>
       </c>
       <c r="CL3">
-        <v>229.9425670941785</v>
+        <v>2915.776968966183</v>
       </c>
       <c r="CM3">
-        <v>229.3305209164093</v>
+        <v>3004.922752690742</v>
       </c>
       <c r="CN3">
-        <v>226.878499245783</v>
+        <v>3063.891805857525</v>
       </c>
       <c r="CO3">
-        <v>223.6962222691025</v>
+        <v>3104.348952963342</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.10068802</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>26777289.13431059</v>
+        <v>1458847.879811726</v>
       </c>
       <c r="F4">
-        <v>29376324.20036948</v>
+        <v>1273552.690059893</v>
       </c>
       <c r="G4">
-        <v>29467847.51655655</v>
+        <v>1477271.487194404</v>
       </c>
       <c r="H4">
-        <v>26833029.95119499</v>
+        <v>1623372.793654725</v>
       </c>
       <c r="I4">
-        <v>26319860.29079583</v>
+        <v>1542884.027835237</v>
       </c>
       <c r="J4">
-        <v>29028422.52673142</v>
+        <v>1677431.625865416</v>
       </c>
       <c r="K4">
-        <v>32849295.30546647</v>
+        <v>1538631.721325047</v>
       </c>
       <c r="L4">
-        <v>32627444.45516806</v>
+        <v>1528319.54713783</v>
       </c>
       <c r="M4">
-        <v>34709349.51894218</v>
+        <v>2038432.693862088</v>
       </c>
       <c r="N4">
-        <v>37566248.4268424</v>
+        <v>1934421.818324266</v>
       </c>
       <c r="O4">
-        <v>34856813.8691586</v>
+        <v>1916171.638708166</v>
       </c>
       <c r="P4">
-        <v>38718879.76888672</v>
+        <v>9931654.514407311</v>
       </c>
       <c r="Q4">
-        <v>39877406.99647937</v>
+        <v>9982454.401035335</v>
       </c>
       <c r="R4">
-        <v>41020646.76113675</v>
+        <v>10022487.76400436</v>
       </c>
       <c r="S4">
-        <v>45641978.88823558</v>
+        <v>31279923.85436745</v>
       </c>
       <c r="T4">
-        <v>46546022.24267036</v>
+        <v>31344484.80681246</v>
       </c>
       <c r="U4">
-        <v>47450325.29861248</v>
+        <v>31420058.97541247</v>
       </c>
       <c r="V4">
-        <v>48351831.29651559</v>
+        <v>31505564.32565229</v>
       </c>
       <c r="W4">
-        <v>49249129.28483271</v>
+        <v>31599563.28161091</v>
       </c>
       <c r="X4">
-        <v>50419163.56305536</v>
+        <v>32549961.40126257</v>
       </c>
       <c r="Y4">
-        <v>51764342.01417334</v>
+        <v>32660911.6093827</v>
       </c>
       <c r="Z4">
-        <v>53108079.85869302</v>
+        <v>32769311.34836029</v>
       </c>
       <c r="AA4">
-        <v>54451470.25823949</v>
+        <v>32887780.79329398</v>
       </c>
       <c r="AB4">
-        <v>55796011.88076303</v>
+        <v>33019051.1094755</v>
       </c>
       <c r="AC4">
-        <v>54928704.54978649</v>
+        <v>9079408.407006437</v>
       </c>
       <c r="AD4">
-        <v>56278773.02069536</v>
+        <v>9247020.237221925</v>
       </c>
       <c r="AE4">
-        <v>57628921.35284009</v>
+        <v>9446887.575191883</v>
       </c>
       <c r="AF4">
-        <v>58976709.8896409</v>
+        <v>9637402.165375361</v>
       </c>
       <c r="AG4">
-        <v>60323175.40708433</v>
+        <v>9882099.062900379</v>
       </c>
       <c r="AH4">
-        <v>61308873.96394449</v>
+        <v>2634324.649063896</v>
       </c>
       <c r="AI4">
-        <v>62682060.73944838</v>
+        <v>2885445.61736868</v>
       </c>
       <c r="AJ4">
-        <v>64059353.70102868</v>
+        <v>3304983.601109055</v>
       </c>
       <c r="AK4">
-        <v>65443887.09816343</v>
+        <v>3911188.682747431</v>
       </c>
       <c r="AL4">
-        <v>66839761.45052585</v>
+        <v>4681540.036266249</v>
       </c>
       <c r="AM4">
-        <v>68217656.44363019</v>
+        <v>9105626.515739188</v>
       </c>
       <c r="AN4">
-        <v>69598980.74080111</v>
+        <v>10368125.06706963</v>
       </c>
       <c r="AO4">
-        <v>70994799.81018661</v>
+        <v>11839486.40330121</v>
       </c>
       <c r="AP4">
-        <v>72403982.65835778</v>
+        <v>13507030.57311474</v>
       </c>
       <c r="AQ4">
-        <v>73782745.55707443</v>
+        <v>14784867.24470953</v>
       </c>
       <c r="AR4">
-        <v>75117485.15206741</v>
+        <v>20653740.85302317</v>
       </c>
       <c r="AS4">
-        <v>76447328.81549072</v>
+        <v>21342389.73276047</v>
       </c>
       <c r="AT4">
-        <v>77772559.1934194</v>
+        <v>21830545.34489401</v>
       </c>
       <c r="AU4">
-        <v>79093825.52538571</v>
+        <v>22092914.63860742</v>
       </c>
       <c r="AV4">
-        <v>80616668.7491236</v>
+        <v>22170386.29645523</v>
       </c>
       <c r="AW4">
-        <v>82081610.81785059</v>
+        <v>23341749.17863254</v>
       </c>
       <c r="AX4">
-        <v>83584336.22262804</v>
+        <v>22768670.4645321</v>
       </c>
       <c r="AY4">
-        <v>84949083.39177743</v>
+        <v>21644694.07133049</v>
       </c>
       <c r="AZ4">
-        <v>86295699.43460667</v>
+        <v>20143344.31843414</v>
       </c>
       <c r="BA4">
-        <v>87675636.67492184</v>
+        <v>19026971.51524213</v>
       </c>
       <c r="BB4">
-        <v>89133316.83927406</v>
+        <v>17369210.64525886</v>
       </c>
       <c r="BC4">
-        <v>90632945.35779279</v>
+        <v>16660596.70824914</v>
       </c>
       <c r="BD4">
-        <v>92128981.65150052</v>
+        <v>15975278.3139108</v>
       </c>
       <c r="BE4">
-        <v>93624607.98909611</v>
+        <v>15431432.01748001</v>
       </c>
       <c r="BF4">
-        <v>95128921.75712925</v>
+        <v>15107583.08799718</v>
       </c>
       <c r="BG4">
-        <v>96678259.87244968</v>
+        <v>14516547.17774849</v>
       </c>
       <c r="BH4">
-        <v>98277568.04991323</v>
+        <v>14718842.9073435</v>
       </c>
       <c r="BI4">
-        <v>99886026.70255776</v>
+        <v>15316632.16414694</v>
       </c>
       <c r="BJ4">
-        <v>101502773.1431575</v>
+        <v>16244631.33828624</v>
       </c>
       <c r="BK4">
-        <v>103126286.119827</v>
+        <v>17353715.54407233</v>
       </c>
       <c r="BL4">
-        <v>104773431.7027442</v>
+        <v>18452082.56303243</v>
       </c>
       <c r="BM4">
-        <v>106447457.3262782</v>
+        <v>19734355.46247735</v>
       </c>
       <c r="BN4">
-        <v>108105121.8485365</v>
+        <v>20938334.22034578</v>
       </c>
       <c r="BO4">
-        <v>109745475.143683</v>
+        <v>21984382.67961864</v>
       </c>
       <c r="BP4">
-        <v>111377148.7704475</v>
+        <v>22776477.45966075</v>
       </c>
       <c r="BQ4">
-        <v>113092438.8190052</v>
+        <v>23334140.9353778</v>
       </c>
       <c r="BR4">
-        <v>114827551.4433166</v>
+        <v>23781318.34468105</v>
       </c>
       <c r="BS4">
-        <v>116561355.6206626</v>
+        <v>24081959.16740772</v>
       </c>
       <c r="BT4">
-        <v>118291691.4083737</v>
+        <v>24159989.67191011</v>
       </c>
       <c r="BU4">
-        <v>120011834.8328568</v>
+        <v>23911132.34547214</v>
       </c>
       <c r="BV4">
-        <v>121771605.3070413</v>
+        <v>23215838.22245894</v>
       </c>
       <c r="BW4">
-        <v>123547586.8788971</v>
+        <v>22556029.67007605</v>
       </c>
       <c r="BX4">
-        <v>125338495.7330481</v>
+        <v>22075307.52441104</v>
       </c>
       <c r="BY4">
-        <v>127145218.4674128</v>
+        <v>21789585.98889285</v>
       </c>
       <c r="BZ4">
-        <v>128957877.3796586</v>
+        <v>21489230.32532429</v>
       </c>
       <c r="CA4">
-        <v>130834188.3793049</v>
+        <v>20962695.65789351</v>
       </c>
       <c r="CB4">
-        <v>132735334.0721236</v>
+        <v>20666766.36915706</v>
       </c>
       <c r="CC4">
-        <v>134642732.4219025</v>
+        <v>20452967.81678404</v>
       </c>
       <c r="CD4">
-        <v>136558428.6069562</v>
+        <v>20359897.65675836</v>
       </c>
       <c r="CE4">
-        <v>138483147.9499978</v>
+        <v>20404544.46762502</v>
       </c>
       <c r="CF4">
-        <v>140480841.7455364</v>
+        <v>20415960.37196534</v>
       </c>
       <c r="CG4">
-        <v>142509750.1995138</v>
+        <v>21035806.89924143</v>
       </c>
       <c r="CH4">
-        <v>144541727.6352226</v>
+        <v>21779236.49194844</v>
       </c>
       <c r="CI4">
-        <v>146572241.6288168</v>
+        <v>22585627.37432782</v>
       </c>
       <c r="CJ4">
-        <v>148595838.4084507</v>
+        <v>23405663.81587356</v>
       </c>
       <c r="CK4">
-        <v>150657644.1447937</v>
+        <v>23600869.85625803</v>
       </c>
       <c r="CL4">
-        <v>152741918.8149469</v>
+        <v>24241914.0630935</v>
       </c>
       <c r="CM4">
-        <v>154818405.6531201</v>
+        <v>24739072.03732761</v>
       </c>
       <c r="CN4">
-        <v>156890857.2112825</v>
+        <v>25111390.22202583</v>
       </c>
       <c r="CO4">
-        <v>158960951.2137501</v>
+        <v>25386150.46503336</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694915.880510496</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>996189.5315787235</v>
+        <v>1439681.332914339</v>
       </c>
       <c r="F5">
-        <v>499591.0178038013</v>
+        <v>1345819.442124947</v>
       </c>
       <c r="G5">
-        <v>307491.8536194687</v>
+        <v>1297235.110396893</v>
       </c>
       <c r="H5">
-        <v>288589.021174796</v>
+        <v>1244835.438951652</v>
       </c>
       <c r="I5">
-        <v>205738.7575899401</v>
+        <v>1555390.171832526</v>
       </c>
       <c r="J5">
-        <v>169875.419654826</v>
+        <v>1711378.352999568</v>
       </c>
       <c r="K5">
-        <v>220549.5257116948</v>
+        <v>1489427.804313143</v>
       </c>
       <c r="L5">
-        <v>398698.7357886778</v>
+        <v>1378421.313648302</v>
       </c>
       <c r="M5">
-        <v>353782.379294222</v>
+        <v>1542530.337653852</v>
       </c>
       <c r="N5">
-        <v>448511.7055296857</v>
+        <v>1621888.4354145</v>
       </c>
       <c r="O5">
-        <v>562772.5514551275</v>
+        <v>2112186.074530136</v>
       </c>
       <c r="P5">
-        <v>3572003.813856287</v>
+        <v>16307860.74407585</v>
       </c>
       <c r="Q5">
-        <v>3662176.924752865</v>
+        <v>16333816.21338973</v>
       </c>
       <c r="R5">
-        <v>3757263.884515786</v>
+        <v>16366772.16696021</v>
       </c>
       <c r="S5">
-        <v>12041458.83903501</v>
+        <v>54209888.21239977</v>
       </c>
       <c r="T5">
-        <v>12304416.53137659</v>
+        <v>54260367.03558227</v>
       </c>
       <c r="U5">
-        <v>12573453.08248088</v>
+        <v>54321576.75003666</v>
       </c>
       <c r="V5">
-        <v>12848513.81036302</v>
+        <v>54395317.95023194</v>
       </c>
       <c r="W5">
-        <v>13129330.80053284</v>
+        <v>54484202.46248683</v>
       </c>
       <c r="X5">
-        <v>12601321.45210701</v>
+        <v>57389938.31145861</v>
       </c>
       <c r="Y5">
-        <v>12656470.82466491</v>
+        <v>57522856.98112737</v>
       </c>
       <c r="Z5">
-        <v>12714763.44674864</v>
+        <v>57689253.9319164</v>
       </c>
       <c r="AA5">
-        <v>12777099.14961608</v>
+        <v>57901201.50323297</v>
       </c>
       <c r="AB5">
-        <v>12845797.97850916</v>
+        <v>58175259.8114974</v>
       </c>
       <c r="AC5">
-        <v>2634687.586549549</v>
+        <v>16815757.13610247</v>
       </c>
       <c r="AD5">
-        <v>2731524.605365505</v>
+        <v>17286365.34550833</v>
       </c>
       <c r="AE5">
-        <v>2855369.876692813</v>
+        <v>17904375.76482018</v>
       </c>
       <c r="AF5">
-        <v>3018378.112596422</v>
+        <v>18711087.27449148</v>
       </c>
       <c r="AG5">
-        <v>3234629.659278358</v>
+        <v>19752638.32282598</v>
       </c>
       <c r="AH5">
-        <v>1572351.892559425</v>
+        <v>7100985.338434661</v>
       </c>
       <c r="AI5">
-        <v>1938337.236298191</v>
+        <v>8558628.694068663</v>
       </c>
       <c r="AJ5">
-        <v>2396758.058384696</v>
+        <v>10343223.17292801</v>
       </c>
       <c r="AK5">
-        <v>2953300.527915218</v>
+        <v>12736317.07990005</v>
       </c>
       <c r="AL5">
-        <v>3606841.574198861</v>
+        <v>15543797.39676337</v>
       </c>
       <c r="AM5">
-        <v>4348059.353512172</v>
+        <v>24623415.36617304</v>
       </c>
       <c r="AN5">
-        <v>5158571.382856572</v>
+        <v>28103846.88238889</v>
       </c>
       <c r="AO5">
-        <v>6010773.508852477</v>
+        <v>31788746.97210365</v>
       </c>
       <c r="AP5">
-        <v>6868533.848543374</v>
+        <v>35538735.84028139</v>
       </c>
       <c r="AQ5">
-        <v>7689011.346493464</v>
+        <v>39182083.57401909</v>
       </c>
       <c r="AR5">
-        <v>8425801.335086191</v>
+        <v>50730210.09694149</v>
       </c>
       <c r="AS5">
-        <v>9033184.488706838</v>
+        <v>53582963.06524845</v>
       </c>
       <c r="AT5">
-        <v>9471148.000129189</v>
+        <v>55768524.12185865</v>
       </c>
       <c r="AU5">
-        <v>9710358.624182526</v>
+        <v>57152310.57107791</v>
       </c>
       <c r="AV5">
-        <v>11048970.35903485</v>
+        <v>57657577.4055163</v>
       </c>
       <c r="AW5">
-        <v>11235023.50320962</v>
+        <v>59674793.83496889</v>
       </c>
       <c r="AX5">
-        <v>10857431.77890137</v>
+        <v>58466664.70073942</v>
       </c>
       <c r="AY5">
-        <v>10321267.51962732</v>
+        <v>56555590.35647823</v>
       </c>
       <c r="AZ5">
-        <v>9671160.973410979</v>
+        <v>54114422.25143787</v>
       </c>
       <c r="BA5">
-        <v>8958358.277297961</v>
+        <v>51349754.39270806</v>
       </c>
       <c r="BB5">
-        <v>8045654.02528979</v>
+        <v>47088943.78502554</v>
       </c>
       <c r="BC5">
-        <v>7366417.682321676</v>
+        <v>44351865.63733242</v>
       </c>
       <c r="BD5">
-        <v>6776488.535062056</v>
+        <v>41954718.08378091</v>
       </c>
       <c r="BE5">
-        <v>6313733.476952948</v>
+        <v>40081560.01682471</v>
       </c>
       <c r="BF5">
-        <v>6004249.25845389</v>
+        <v>38872385.50926251</v>
       </c>
       <c r="BG5">
-        <v>5672172.615817284</v>
+        <v>37640546.0234106</v>
       </c>
       <c r="BH5">
-        <v>5692029.491716137</v>
+        <v>37952029.72608801</v>
       </c>
       <c r="BI5">
-        <v>5861504.919453058</v>
+        <v>39002643.71591939</v>
       </c>
       <c r="BJ5">
-        <v>6157507.354901407</v>
+        <v>40712331.19998205</v>
       </c>
       <c r="BK5">
-        <v>6551995.852101554</v>
+        <v>42967377.25583482</v>
       </c>
       <c r="BL5">
-        <v>6873940.648649902</v>
+        <v>45527530.78721425</v>
       </c>
       <c r="BM5">
-        <v>7377565.874684097</v>
+        <v>48457143.71103125</v>
       </c>
       <c r="BN5">
-        <v>7894383.604282239</v>
+        <v>51500195.74780367</v>
       </c>
       <c r="BO5">
-        <v>8399591.741952265</v>
+        <v>54508456.68066286</v>
       </c>
       <c r="BP5">
-        <v>8870813.758479023</v>
+        <v>57343204.35894439</v>
       </c>
       <c r="BQ5">
-        <v>9189805.019971779</v>
+        <v>59906786.6344051</v>
       </c>
       <c r="BR5">
-        <v>9537690.587457728</v>
+        <v>62052452.1056831</v>
       </c>
       <c r="BS5">
-        <v>9803360.746013347</v>
+        <v>63734008.00617307</v>
       </c>
       <c r="BT5">
-        <v>9978644.817974124</v>
+        <v>64911880.09468625</v>
       </c>
       <c r="BU5">
-        <v>10059972.86770009</v>
+        <v>65578272.31615769</v>
       </c>
       <c r="BV5">
-        <v>9952378.949705608</v>
+        <v>65537198.36493602</v>
       </c>
       <c r="BW5">
-        <v>9854899.353031294</v>
+        <v>65280738.10258959</v>
       </c>
       <c r="BX5">
-        <v>9682763.96420267</v>
+        <v>64667631.89649016</v>
       </c>
       <c r="BY5">
-        <v>9452250.468689993</v>
+        <v>63795663.61114269</v>
       </c>
       <c r="BZ5">
-        <v>9183554.91889154</v>
+        <v>62774651.21854672</v>
       </c>
       <c r="CA5">
-        <v>8798343.111257203</v>
+        <v>61327560.50123087</v>
       </c>
       <c r="CB5">
-        <v>8522305.346322158</v>
+        <v>60346309.92846997</v>
       </c>
       <c r="CC5">
-        <v>8276491.278674653</v>
+        <v>59539220.10646011</v>
       </c>
       <c r="CD5">
-        <v>8079735.891790528</v>
+        <v>58988733.0391894</v>
       </c>
       <c r="CE5">
-        <v>7946002.092063189</v>
+        <v>58755790.58340008</v>
       </c>
       <c r="CF5">
-        <v>7769490.538328215</v>
+        <v>58206316.45132345</v>
       </c>
       <c r="CG5">
-        <v>7780501.456510265</v>
+        <v>58691978.72576661</v>
       </c>
       <c r="CH5">
-        <v>7861815.508868756</v>
+        <v>59528162.71852187</v>
       </c>
       <c r="CI5">
-        <v>8005618.594032336</v>
+        <v>60678712.23020957</v>
       </c>
       <c r="CJ5">
-        <v>8200563.309683725</v>
+        <v>62089476.97916714</v>
       </c>
       <c r="CK5">
-        <v>8277102.835720519</v>
+        <v>62640841.93142905</v>
       </c>
       <c r="CL5">
-        <v>8531908.212982083</v>
+        <v>64362397.59358234</v>
       </c>
       <c r="CM5">
-        <v>8793961.098751282</v>
+        <v>66123977.81259896</v>
       </c>
       <c r="CN5">
-        <v>9048809.025251299</v>
+        <v>67850172.64941625</v>
       </c>
       <c r="CO5">
-        <v>9283513.603499539</v>
+        <v>69472419.29161821</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285184034511</v>
+        <v>1072.353295692879</v>
       </c>
       <c r="E2">
-        <v>564.6463462258951</v>
+        <v>2470.050435345173</v>
       </c>
       <c r="F2">
-        <v>1064.88210031217</v>
+        <v>3867.023868413166</v>
       </c>
       <c r="G2">
-        <v>1435.497018048624</v>
+        <v>5194.51595677336</v>
       </c>
       <c r="H2">
-        <v>2384.506733964104</v>
+        <v>6974.972315131441</v>
       </c>
       <c r="I2">
-        <v>2929.805485024658</v>
+        <v>8259.448053693348</v>
       </c>
       <c r="J2">
-        <v>3538.331158889776</v>
+        <v>10583.58280483093</v>
       </c>
       <c r="K2">
-        <v>4238.291001298352</v>
+        <v>12894.08424371156</v>
       </c>
       <c r="L2">
-        <v>4796.285993122247</v>
+        <v>14949.96676296381</v>
       </c>
       <c r="M2">
-        <v>5481.152939221779</v>
+        <v>16844.92153652836</v>
       </c>
       <c r="N2">
-        <v>5829.393805569774</v>
+        <v>20898.58493318984</v>
       </c>
       <c r="O2">
-        <v>6217.449297080471</v>
+        <v>23359.24622502006</v>
       </c>
       <c r="P2">
-        <v>6998.187241961988</v>
+        <v>28291.22640805351</v>
       </c>
       <c r="Q2">
-        <v>7795.730376298079</v>
+        <v>33613.92606256662</v>
       </c>
       <c r="R2">
-        <v>8610.773044770385</v>
+        <v>39332.78008642148</v>
       </c>
       <c r="S2">
-        <v>10610.44327862107</v>
+        <v>51836.55756607695</v>
       </c>
       <c r="T2">
-        <v>12602.15132252409</v>
+        <v>65224.40838730923</v>
       </c>
       <c r="U2">
-        <v>14596.409190898</v>
+        <v>79505.93283834425</v>
       </c>
       <c r="V2">
-        <v>16606.03754458523</v>
+        <v>94697.97543165251</v>
       </c>
       <c r="W2">
-        <v>18632.50726356011</v>
+        <v>110813.9414342398</v>
       </c>
       <c r="X2">
-        <v>20506.44552447433</v>
+        <v>127008.5763428913</v>
       </c>
       <c r="Y2">
-        <v>22404.58403054739</v>
+        <v>144092.1671453603</v>
       </c>
       <c r="Z2">
-        <v>24320.80739900139</v>
+        <v>162072.0683282274</v>
       </c>
       <c r="AA2">
-        <v>26258.66874203826</v>
+        <v>180967.0485641646</v>
       </c>
       <c r="AB2">
-        <v>28257.15380615582</v>
+        <v>200803.0197441031</v>
       </c>
       <c r="AC2">
-        <v>29006.47225328433</v>
+        <v>210077.8962641477</v>
       </c>
       <c r="AD2">
-        <v>29865.891651952</v>
+        <v>219610.8010730842</v>
       </c>
       <c r="AE2">
-        <v>30831.9497055095</v>
+        <v>229474.818819852</v>
       </c>
       <c r="AF2">
-        <v>31788.86704996488</v>
+        <v>239659.3736213394</v>
       </c>
       <c r="AG2">
-        <v>32706.08015353543</v>
+        <v>250218.7989138856</v>
       </c>
       <c r="AH2">
-        <v>33433.43361907153</v>
+        <v>256990.6475698972</v>
       </c>
       <c r="AI2">
-        <v>34135.82487667813</v>
+        <v>263825.9686069969</v>
       </c>
       <c r="AJ2">
-        <v>34806.10743085619</v>
+        <v>270992.6001151592</v>
       </c>
       <c r="AK2">
-        <v>35454.9232984896</v>
+        <v>278751.9262987616</v>
       </c>
       <c r="AL2">
-        <v>36192.01438826922</v>
+        <v>287088.3881170751</v>
       </c>
       <c r="AM2">
-        <v>37127.27329647949</v>
+        <v>298132.9465919308</v>
       </c>
       <c r="AN2">
-        <v>38280.79670134112</v>
+        <v>310574.7207252731</v>
       </c>
       <c r="AO2">
-        <v>39744.49468292374</v>
+        <v>324953.3994230427</v>
       </c>
       <c r="AP2">
-        <v>41606.02964760766</v>
+        <v>341831.569700737</v>
       </c>
       <c r="AQ2">
-        <v>43672.34032286261</v>
+        <v>360501.0277950662</v>
       </c>
       <c r="AR2">
-        <v>45759.89199304102</v>
+        <v>383482.1044849916</v>
       </c>
       <c r="AS2">
-        <v>47845.97580223031</v>
+        <v>407453.474719804</v>
       </c>
       <c r="AT2">
-        <v>49909.12907178969</v>
+        <v>432256.4720422528</v>
       </c>
       <c r="AU2">
-        <v>51931.23919575078</v>
+        <v>457739.2924315059</v>
       </c>
       <c r="AV2">
-        <v>53939.21524692414</v>
+        <v>483912.1315708868</v>
       </c>
       <c r="AW2">
-        <v>55919.46540819311</v>
+        <v>511326.4569797131</v>
       </c>
       <c r="AX2">
-        <v>58004.27917444475</v>
+        <v>538465.393379116</v>
       </c>
       <c r="AY2">
-        <v>59826.05253889843</v>
+        <v>563843.2571953087</v>
       </c>
       <c r="AZ2">
-        <v>61287.36494374967</v>
+        <v>586360.9839285637</v>
       </c>
       <c r="BA2">
-        <v>62596.00300547371</v>
+        <v>607459.6225452095</v>
       </c>
       <c r="BB2">
-        <v>63897.55881429135</v>
+        <v>627676.2985794258</v>
       </c>
       <c r="BC2">
-        <v>65178.16471317936</v>
+        <v>647757.3066404286</v>
       </c>
       <c r="BD2">
-        <v>66390.24172255828</v>
+        <v>667197.7680775783</v>
       </c>
       <c r="BE2">
-        <v>67520.79413592073</v>
+        <v>685658.7323978408</v>
       </c>
       <c r="BF2">
-        <v>68604.42552505448</v>
+        <v>703798.9454404478</v>
       </c>
       <c r="BG2">
-        <v>69660.28849666419</v>
+        <v>721762.7819163024</v>
       </c>
       <c r="BH2">
-        <v>70764.62214775248</v>
+        <v>740578.4217420453</v>
       </c>
       <c r="BI2">
-        <v>71994.00434062682</v>
+        <v>760702.2615364</v>
       </c>
       <c r="BJ2">
-        <v>73424.13392728253</v>
+        <v>782621.9941049357</v>
       </c>
       <c r="BK2">
-        <v>75106.66956948298</v>
+        <v>806505.016616394</v>
       </c>
       <c r="BL2">
-        <v>77050.13719809309</v>
+        <v>832128.9574318673</v>
       </c>
       <c r="BM2">
-        <v>79247.99423546089</v>
+        <v>860083.5252192213</v>
       </c>
       <c r="BN2">
-        <v>81598.0132667959</v>
+        <v>890438.9278389778</v>
       </c>
       <c r="BO2">
-        <v>83993.59554264156</v>
+        <v>923050.5122893557</v>
       </c>
       <c r="BP2">
-        <v>86384.6674130531</v>
+        <v>957197.3991845467</v>
       </c>
       <c r="BQ2">
-        <v>88741.81097335405</v>
+        <v>992088.9719522985</v>
       </c>
       <c r="BR2">
-        <v>91073.15179978863</v>
+        <v>1027764.135291416</v>
       </c>
       <c r="BS2">
-        <v>93379.1544954834</v>
+        <v>1064076.346052047</v>
       </c>
       <c r="BT2">
-        <v>95650.26423681866</v>
+        <v>1100616.724066538</v>
       </c>
       <c r="BU2">
-        <v>97837.14974660378</v>
+        <v>1136528.294184419</v>
       </c>
       <c r="BV2">
-        <v>99828.82189683484</v>
+        <v>1170738.552057977</v>
       </c>
       <c r="BW2">
-        <v>101611.3777727863</v>
+        <v>1203267.396293458</v>
       </c>
       <c r="BX2">
-        <v>103269.0066976815</v>
+        <v>1234611.167713039</v>
       </c>
       <c r="BY2">
-        <v>104878.9960821936</v>
+        <v>1265328.166976308</v>
       </c>
       <c r="BZ2">
-        <v>106452.8675050497</v>
+        <v>1295641.248375976</v>
       </c>
       <c r="CA2">
-        <v>107962.0375795658</v>
+        <v>1325303.119824892</v>
       </c>
       <c r="CB2">
-        <v>109422.9994449067</v>
+        <v>1354550.087016729</v>
       </c>
       <c r="CC2">
-        <v>110863.4296854837</v>
+        <v>1383726.324494492</v>
       </c>
       <c r="CD2">
-        <v>112328.9276159303</v>
+        <v>1413333.167030247</v>
       </c>
       <c r="CE2">
-        <v>113880.8527714166</v>
+        <v>1443934.696851732</v>
       </c>
       <c r="CF2">
-        <v>115569.7972895553</v>
+        <v>1475750.357066497</v>
       </c>
       <c r="CG2">
-        <v>117465.0897705105</v>
+        <v>1509340.281502369</v>
       </c>
       <c r="CH2">
-        <v>119594.3534637297</v>
+        <v>1544865.48964883</v>
       </c>
       <c r="CI2">
-        <v>121950.8840978961</v>
+        <v>1582425.830696551</v>
       </c>
       <c r="CJ2">
-        <v>124491.954269544</v>
+        <v>1622146.619823771</v>
       </c>
       <c r="CK2">
-        <v>127124.0585145755</v>
+        <v>1663593.442559128</v>
       </c>
       <c r="CL2">
-        <v>129796.9059537164</v>
+        <v>1706849.605427098</v>
       </c>
       <c r="CM2">
-        <v>132465.3742338053</v>
+        <v>1751424.516048901</v>
       </c>
       <c r="CN2">
-        <v>135109.332852708</v>
+        <v>1796872.560821358</v>
       </c>
       <c r="CO2">
-        <v>137720.7895973143</v>
+        <v>1842920.351118953</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.490721496882</v>
+        <v>70.9098667458114</v>
       </c>
       <c r="E3">
-        <v>35.65014963863928</v>
+        <v>163.6126556386617</v>
       </c>
       <c r="F3">
-        <v>67.96335009617084</v>
+        <v>256.1485766420702</v>
       </c>
       <c r="G3">
-        <v>91.57164507497303</v>
+        <v>344.0167853366291</v>
       </c>
       <c r="H3">
-        <v>154.1261727825233</v>
+        <v>462.4057110825472</v>
       </c>
       <c r="I3">
-        <v>189.5543516325549</v>
+        <v>547.4709564627094</v>
       </c>
       <c r="J3">
-        <v>229.1165820795718</v>
+        <v>702.2510562004475</v>
       </c>
       <c r="K3">
-        <v>274.6666968023985</v>
+        <v>855.9632805554686</v>
       </c>
       <c r="L3">
-        <v>310.7268943805033</v>
+        <v>992.6197415268191</v>
       </c>
       <c r="M3">
-        <v>355.2353114885433</v>
+        <v>1118.39049830697</v>
       </c>
       <c r="N3">
-        <v>376.9863308687164</v>
+        <v>1389.059769863776</v>
       </c>
       <c r="O3">
-        <v>401.5559608576062</v>
+        <v>1552.875416097209</v>
       </c>
       <c r="P3">
-        <v>452.4171563053666</v>
+        <v>1882.553131401447</v>
       </c>
       <c r="Q3">
-        <v>506.7516363289402</v>
+        <v>2238.445707178264</v>
       </c>
       <c r="R3">
-        <v>564.7100489614595</v>
+        <v>2620.921341430051</v>
       </c>
       <c r="S3">
-        <v>716.4822539200533</v>
+        <v>3458.918913053732</v>
       </c>
       <c r="T3">
-        <v>873.9142228471027</v>
+        <v>4356.246929076654</v>
       </c>
       <c r="U3">
-        <v>1037.823826286961</v>
+        <v>5313.55516600096</v>
       </c>
       <c r="V3">
-        <v>1209.33903686077</v>
+        <v>6331.984030417731</v>
       </c>
       <c r="W3">
-        <v>1388.680421026779</v>
+        <v>7412.440996590623</v>
       </c>
       <c r="X3">
-        <v>1554.104073590673</v>
+        <v>8498.167353081071</v>
       </c>
       <c r="Y3">
-        <v>1721.632290057929</v>
+        <v>9643.60120038133</v>
       </c>
       <c r="Z3">
-        <v>1890.706083054462</v>
+        <v>10849.2400981072</v>
       </c>
       <c r="AA3">
-        <v>2061.650308940819</v>
+        <v>12116.35411896322</v>
       </c>
       <c r="AB3">
-        <v>2238.029185710037</v>
+        <v>13446.69678688174</v>
       </c>
       <c r="AC3">
-        <v>2301.170616490917</v>
+        <v>14067.88126060785</v>
       </c>
       <c r="AD3">
-        <v>2374.267609908377</v>
+        <v>14706.41574301941</v>
       </c>
       <c r="AE3">
-        <v>2457.003344456696</v>
+        <v>15367.24663545625</v>
       </c>
       <c r="AF3">
-        <v>2538.792173346939</v>
+        <v>16049.65431488388</v>
       </c>
       <c r="AG3">
-        <v>2616.839355593958</v>
+        <v>16757.31327644996</v>
       </c>
       <c r="AH3">
-        <v>2677.564858119007</v>
+        <v>17210.65320760682</v>
       </c>
       <c r="AI3">
-        <v>2735.891571266582</v>
+        <v>17668.26082653804</v>
       </c>
       <c r="AJ3">
-        <v>2791.164746875471</v>
+        <v>18148.26750331868</v>
       </c>
       <c r="AK3">
-        <v>2844.355604355868</v>
+        <v>18668.36227870741</v>
       </c>
       <c r="AL3">
-        <v>2905.495466980243</v>
+        <v>19227.48109296527</v>
       </c>
       <c r="AM3">
-        <v>2984.629259973769</v>
+        <v>19968.90804198853</v>
       </c>
       <c r="AN3">
-        <v>3083.593337959545</v>
+        <v>20804.83659811208</v>
       </c>
       <c r="AO3">
-        <v>3210.788860519806</v>
+        <v>21771.80978884323</v>
       </c>
       <c r="AP3">
-        <v>3374.229104370504</v>
+        <v>22907.92452227773</v>
       </c>
       <c r="AQ3">
-        <v>3556.266567846887</v>
+        <v>24165.22614939637</v>
       </c>
       <c r="AR3">
-        <v>3740.121680283625</v>
+        <v>25712.52854442407</v>
       </c>
       <c r="AS3">
-        <v>3923.720003873997</v>
+        <v>27326.71864840001</v>
       </c>
       <c r="AT3">
-        <v>4105.101389727007</v>
+        <v>28997.06615518822</v>
       </c>
       <c r="AU3">
-        <v>4282.612189671244</v>
+        <v>30713.30838141286</v>
       </c>
       <c r="AV3">
-        <v>4458.701332878035</v>
+        <v>32476.15482937824</v>
       </c>
       <c r="AW3">
-        <v>4632.127559967326</v>
+        <v>34322.54385335674</v>
       </c>
       <c r="AX3">
-        <v>4814.826487426706</v>
+        <v>36150.17664659943</v>
       </c>
       <c r="AY3">
-        <v>4973.36009052136</v>
+        <v>37858.45635853684</v>
       </c>
       <c r="AZ3">
-        <v>5098.824501923761</v>
+        <v>39372.96411229145</v>
       </c>
       <c r="BA3">
-        <v>5210.214172460735</v>
+        <v>40791.2951599113</v>
       </c>
       <c r="BB3">
-        <v>5320.847137822972</v>
+        <v>42150.33271861556</v>
       </c>
       <c r="BC3">
-        <v>5429.433625441703</v>
+        <v>43500.11734235592</v>
       </c>
       <c r="BD3">
-        <v>5531.623107329537</v>
+        <v>44806.44949366075</v>
       </c>
       <c r="BE3">
-        <v>5626.226228525451</v>
+        <v>46046.36209797778</v>
       </c>
       <c r="BF3">
-        <v>5716.404283882372</v>
+        <v>47264.45300969683</v>
       </c>
       <c r="BG3">
-        <v>5803.917515728233</v>
+        <v>48470.84979067385</v>
       </c>
       <c r="BH3">
-        <v>5895.712632855882</v>
+        <v>49734.80684072609</v>
       </c>
       <c r="BI3">
-        <v>5998.788560664746</v>
+        <v>51087.21432380073</v>
       </c>
       <c r="BJ3">
-        <v>6120.06417781731</v>
+        <v>52561.08393618018</v>
       </c>
       <c r="BK3">
-        <v>6264.26084574169</v>
+        <v>54167.7396530511</v>
       </c>
       <c r="BL3">
-        <v>6432.165462926324</v>
+        <v>55892.31517008392</v>
       </c>
       <c r="BM3">
-        <v>6623.164024235799</v>
+        <v>57774.54231576397</v>
       </c>
       <c r="BN3">
-        <v>6827.911755097151</v>
+        <v>59819.17552820523</v>
       </c>
       <c r="BO3">
-        <v>7036.664562462815</v>
+        <v>62016.42166016131</v>
       </c>
       <c r="BP3">
-        <v>7244.845596848989</v>
+        <v>64317.46611807412</v>
       </c>
       <c r="BQ3">
-        <v>7449.765709926161</v>
+        <v>66668.87357236184</v>
       </c>
       <c r="BR3">
-        <v>7652.157591899244</v>
+        <v>69073.18492654986</v>
       </c>
       <c r="BS3">
-        <v>7852.064659775931</v>
+        <v>71520.4863052393</v>
       </c>
       <c r="BT3">
-        <v>8048.614592535645</v>
+        <v>73983.09888199985</v>
       </c>
       <c r="BU3">
-        <v>8237.29916299807</v>
+        <v>76402.99821277692</v>
       </c>
       <c r="BV3">
-        <v>8407.974628245172</v>
+        <v>78707.68647083294</v>
       </c>
       <c r="BW3">
-        <v>8559.360421788362</v>
+        <v>80898.39507692477</v>
       </c>
       <c r="BX3">
-        <v>8699.152875566402</v>
+        <v>83008.7429265401</v>
       </c>
       <c r="BY3">
-        <v>8834.417032687261</v>
+        <v>85076.54290917124</v>
       </c>
       <c r="BZ3">
-        <v>8966.20598832607</v>
+        <v>87116.89039682542</v>
       </c>
       <c r="CA3">
-        <v>9091.907472196144</v>
+        <v>89113.15107833127</v>
       </c>
       <c r="CB3">
-        <v>9213.017679868311</v>
+        <v>91081.21162620487</v>
       </c>
       <c r="CC3">
-        <v>9332.066041294756</v>
+        <v>93044.37678128509</v>
       </c>
       <c r="CD3">
-        <v>9453.220222376196</v>
+        <v>95036.59279726013</v>
       </c>
       <c r="CE3">
-        <v>9582.088606378276</v>
+        <v>97096.05387079682</v>
       </c>
       <c r="CF3">
-        <v>9723.29627493622</v>
+        <v>99237.75368023607</v>
       </c>
       <c r="CG3">
-        <v>9883.167608816035</v>
+        <v>101499.4712724146</v>
       </c>
       <c r="CH3">
-        <v>10064.2271371822</v>
+        <v>103892.1032504106</v>
       </c>
       <c r="CI3">
-        <v>10265.86146330769</v>
+        <v>106422.4051914605</v>
       </c>
       <c r="CJ3">
-        <v>10484.16437575731</v>
+        <v>109098.8593166101</v>
       </c>
       <c r="CK3">
-        <v>10710.59433169544</v>
+        <v>111892.2665714115</v>
       </c>
       <c r="CL3">
-        <v>10940.53689878962</v>
+        <v>114808.0435403776</v>
       </c>
       <c r="CM3">
-        <v>11169.86741970603</v>
+        <v>117812.9662930684</v>
       </c>
       <c r="CN3">
-        <v>11396.74591895181</v>
+        <v>120876.8580989259</v>
       </c>
       <c r="CO3">
-        <v>11620.44214122091</v>
+        <v>123981.2070518892</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.10068802</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>53251708.23499861</v>
+        <v>3082938.417141688</v>
       </c>
       <c r="F4">
-        <v>82628032.43536809</v>
+        <v>4356491.107201581</v>
       </c>
       <c r="G4">
-        <v>112095879.9519247</v>
+        <v>5833762.594395984</v>
       </c>
       <c r="H4">
-        <v>138928909.9031197</v>
+        <v>7457135.388050709</v>
       </c>
       <c r="I4">
-        <v>165248770.1939155</v>
+        <v>9000019.415885946</v>
       </c>
       <c r="J4">
-        <v>194277192.7206469</v>
+        <v>10677451.04175136</v>
       </c>
       <c r="K4">
-        <v>227126488.0261134</v>
+        <v>12216082.76307641</v>
       </c>
       <c r="L4">
-        <v>259753932.4812815</v>
+        <v>13744402.31021424</v>
       </c>
       <c r="M4">
-        <v>294463282.0002236</v>
+        <v>15782835.00407633</v>
       </c>
       <c r="N4">
-        <v>332029530.427066</v>
+        <v>17717256.82240059</v>
       </c>
       <c r="O4">
-        <v>366886344.2962246</v>
+        <v>19633428.46110876</v>
       </c>
       <c r="P4">
-        <v>405605224.0651113</v>
+        <v>29565082.97551607</v>
       </c>
       <c r="Q4">
-        <v>445482631.0615907</v>
+        <v>39547537.3765514</v>
       </c>
       <c r="R4">
-        <v>486503277.8227275</v>
+        <v>49570025.14055576</v>
       </c>
       <c r="S4">
-        <v>532145256.7109631</v>
+        <v>80849948.9949232</v>
       </c>
       <c r="T4">
-        <v>578691278.9536334</v>
+        <v>112194433.8017357</v>
       </c>
       <c r="U4">
-        <v>626141604.2522459</v>
+        <v>143614492.7771481</v>
       </c>
       <c r="V4">
-        <v>674493435.5487615</v>
+        <v>175120057.1028004</v>
       </c>
       <c r="W4">
-        <v>723742564.8335942</v>
+        <v>206719620.3844113</v>
       </c>
       <c r="X4">
-        <v>774161728.3966496</v>
+        <v>239269581.7856739</v>
       </c>
       <c r="Y4">
-        <v>825926070.410823</v>
+        <v>271930493.3950566</v>
       </c>
       <c r="Z4">
-        <v>879034150.269516</v>
+        <v>304699804.7434169</v>
       </c>
       <c r="AA4">
-        <v>933485620.5277555</v>
+        <v>337587585.5367109</v>
       </c>
       <c r="AB4">
-        <v>989281632.4085186</v>
+        <v>370606636.6461864</v>
       </c>
       <c r="AC4">
-        <v>1044210336.958305</v>
+        <v>379686045.0531928</v>
       </c>
       <c r="AD4">
-        <v>1100489109.979</v>
+        <v>388933065.2904147</v>
       </c>
       <c r="AE4">
-        <v>1158118031.331841</v>
+        <v>398379952.8656065</v>
       </c>
       <c r="AF4">
-        <v>1217094741.221481</v>
+        <v>408017355.0309819</v>
       </c>
       <c r="AG4">
-        <v>1277417916.628566</v>
+        <v>417899454.0938823</v>
       </c>
       <c r="AH4">
-        <v>1338726790.59251</v>
+        <v>420533778.7429461</v>
       </c>
       <c r="AI4">
-        <v>1401408851.331958</v>
+        <v>423419224.3603148</v>
       </c>
       <c r="AJ4">
-        <v>1465468205.032987</v>
+        <v>426724207.9614239</v>
       </c>
       <c r="AK4">
-        <v>1530912092.13115</v>
+        <v>430635396.6441713</v>
       </c>
       <c r="AL4">
-        <v>1597751853.581676</v>
+        <v>435316936.6804376</v>
       </c>
       <c r="AM4">
-        <v>1665969510.025306</v>
+        <v>444422563.1961768</v>
       </c>
       <c r="AN4">
-        <v>1735568490.766107</v>
+        <v>454790688.2632464</v>
       </c>
       <c r="AO4">
-        <v>1806563290.576294</v>
+        <v>466630174.6665477</v>
       </c>
       <c r="AP4">
-        <v>1878967273.234652</v>
+        <v>480137205.2396624</v>
       </c>
       <c r="AQ4">
-        <v>1952750018.791726</v>
+        <v>494922072.484372</v>
       </c>
       <c r="AR4">
-        <v>2027867503.943794</v>
+        <v>515575813.3373951</v>
       </c>
       <c r="AS4">
-        <v>2104314832.759284</v>
+        <v>536918203.0701556</v>
       </c>
       <c r="AT4">
-        <v>2182087391.952703</v>
+        <v>558748748.4150497</v>
       </c>
       <c r="AU4">
-        <v>2261181217.478089</v>
+        <v>580841663.0536571</v>
       </c>
       <c r="AV4">
-        <v>2341797886.227213</v>
+        <v>603012049.3501123</v>
       </c>
       <c r="AW4">
-        <v>2423879497.045063</v>
+        <v>626353798.5287448</v>
       </c>
       <c r="AX4">
-        <v>2507463833.267692</v>
+        <v>649122468.993277</v>
       </c>
       <c r="AY4">
-        <v>2592412916.659469</v>
+        <v>670767163.0646074</v>
       </c>
       <c r="AZ4">
-        <v>2678708616.094076</v>
+        <v>690910507.3830415</v>
       </c>
       <c r="BA4">
-        <v>2766384252.768998</v>
+        <v>709937478.8982836</v>
       </c>
       <c r="BB4">
-        <v>2855517569.608272</v>
+        <v>727306689.5435425</v>
       </c>
       <c r="BC4">
-        <v>2946150514.966064</v>
+        <v>743967286.2517916</v>
       </c>
       <c r="BD4">
-        <v>3038279496.617565</v>
+        <v>759942564.5657024</v>
       </c>
       <c r="BE4">
-        <v>3131904104.606661</v>
+        <v>775373996.5831825</v>
       </c>
       <c r="BF4">
-        <v>3227033026.363791</v>
+        <v>790481579.6711797</v>
       </c>
       <c r="BG4">
-        <v>3323711286.23624</v>
+        <v>804998126.8489281</v>
       </c>
       <c r="BH4">
-        <v>3421988854.286154</v>
+        <v>819716969.7562716</v>
       </c>
       <c r="BI4">
-        <v>3521874880.988711</v>
+        <v>835033601.9204185</v>
       </c>
       <c r="BJ4">
-        <v>3623377654.131869</v>
+        <v>851278233.2587048</v>
       </c>
       <c r="BK4">
-        <v>3726503940.251696</v>
+        <v>868631948.8027771</v>
       </c>
       <c r="BL4">
-        <v>3831277371.95444</v>
+        <v>887084031.3658094</v>
       </c>
       <c r="BM4">
-        <v>3937724829.280718</v>
+        <v>906818386.8282868</v>
       </c>
       <c r="BN4">
-        <v>4045829951.129254</v>
+        <v>927756721.0486325</v>
       </c>
       <c r="BO4">
-        <v>4155575426.272937</v>
+        <v>949741103.7282511</v>
       </c>
       <c r="BP4">
-        <v>4266952575.043385</v>
+        <v>972517581.1879119</v>
       </c>
       <c r="BQ4">
-        <v>4380045013.86239</v>
+        <v>995851722.1232897</v>
       </c>
       <c r="BR4">
-        <v>4494872565.305706</v>
+        <v>1019633040.467971</v>
       </c>
       <c r="BS4">
-        <v>4611433920.926369</v>
+        <v>1043714999.635378</v>
       </c>
       <c r="BT4">
-        <v>4729725612.334743</v>
+        <v>1067874989.307289</v>
       </c>
       <c r="BU4">
-        <v>4849737447.1676</v>
+        <v>1091786121.652761</v>
       </c>
       <c r="BV4">
-        <v>4971509052.474641</v>
+        <v>1115001959.87522</v>
       </c>
       <c r="BW4">
-        <v>5095056639.353538</v>
+        <v>1137557989.545296</v>
       </c>
       <c r="BX4">
-        <v>5220395135.086586</v>
+        <v>1159633297.069707</v>
       </c>
       <c r="BY4">
-        <v>5347540353.553999</v>
+        <v>1181422883.058599</v>
       </c>
       <c r="BZ4">
-        <v>5476498230.933658</v>
+        <v>1202912113.383924</v>
       </c>
       <c r="CA4">
-        <v>5607332419.312963</v>
+        <v>1223874809.041817</v>
       </c>
       <c r="CB4">
-        <v>5740067753.385086</v>
+        <v>1244541575.410974</v>
       </c>
       <c r="CC4">
-        <v>5874710485.806989</v>
+        <v>1264994543.227758</v>
       </c>
       <c r="CD4">
-        <v>6011268914.413945</v>
+        <v>1285354440.884517</v>
       </c>
       <c r="CE4">
-        <v>6149752062.363943</v>
+        <v>1305758985.352142</v>
       </c>
       <c r="CF4">
-        <v>6290232904.10948</v>
+        <v>1326174945.724107</v>
       </c>
       <c r="CG4">
-        <v>6432742654.308993</v>
+        <v>1347210752.623349</v>
       </c>
       <c r="CH4">
-        <v>6577284381.944216</v>
+        <v>1368989989.115297</v>
       </c>
       <c r="CI4">
-        <v>6723856623.573032</v>
+        <v>1391575616.489625</v>
       </c>
       <c r="CJ4">
-        <v>6872452461.981483</v>
+        <v>1414981280.305499</v>
       </c>
       <c r="CK4">
-        <v>7023110106.126277</v>
+        <v>1438582150.161757</v>
       </c>
       <c r="CL4">
-        <v>7175852024.941224</v>
+        <v>1462824064.22485</v>
       </c>
       <c r="CM4">
-        <v>7330670430.594344</v>
+        <v>1487563136.262177</v>
       </c>
       <c r="CN4">
-        <v>7487561287.805627</v>
+        <v>1512674526.484203</v>
       </c>
       <c r="CO4">
-        <v>7646522239.019377</v>
+        <v>1538060676.949237</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694915.880510496</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>2691105.412089219</v>
+        <v>3589423.08583223</v>
       </c>
       <c r="F5">
-        <v>3190696.42989302</v>
+        <v>4935242.527957177</v>
       </c>
       <c r="G5">
-        <v>3498188.283512489</v>
+        <v>6232477.63835407</v>
       </c>
       <c r="H5">
-        <v>3786777.304687285</v>
+        <v>7477313.077305721</v>
       </c>
       <c r="I5">
-        <v>3992516.062277225</v>
+        <v>9032703.249138247</v>
       </c>
       <c r="J5">
-        <v>4162391.481932051</v>
+        <v>10744081.60213782</v>
       </c>
       <c r="K5">
-        <v>4382941.007643746</v>
+        <v>12233509.40645096</v>
       </c>
       <c r="L5">
-        <v>4781639.743432424</v>
+        <v>13611930.72009926</v>
       </c>
       <c r="M5">
-        <v>5135422.122726646</v>
+        <v>15154461.05775311</v>
       </c>
       <c r="N5">
-        <v>5583933.828256332</v>
+        <v>16776349.49316761</v>
       </c>
       <c r="O5">
-        <v>6146706.37971146</v>
+        <v>18888535.56769775</v>
       </c>
       <c r="P5">
-        <v>9718710.193567747</v>
+        <v>35196396.3117736</v>
       </c>
       <c r="Q5">
-        <v>13380887.11832061</v>
+        <v>51530212.52516333</v>
       </c>
       <c r="R5">
-        <v>17138151.0028364</v>
+        <v>67896984.69212353</v>
       </c>
       <c r="S5">
-        <v>29179609.84187141</v>
+        <v>122106872.9045233</v>
       </c>
       <c r="T5">
-        <v>41484026.373248</v>
+        <v>176367239.9401056</v>
       </c>
       <c r="U5">
-        <v>54057479.45572888</v>
+        <v>230688816.6901422</v>
       </c>
       <c r="V5">
-        <v>66905993.2660919</v>
+        <v>285084134.6403742</v>
       </c>
       <c r="W5">
-        <v>80035324.06662473</v>
+        <v>339568337.102861</v>
       </c>
       <c r="X5">
-        <v>92636645.51873174</v>
+        <v>396958275.4143196</v>
       </c>
       <c r="Y5">
-        <v>105293116.3433966</v>
+        <v>454481132.395447</v>
       </c>
       <c r="Z5">
-        <v>118007879.7901453</v>
+        <v>512170386.3273634</v>
       </c>
       <c r="AA5">
-        <v>130784978.9397614</v>
+        <v>570071587.8305963</v>
       </c>
       <c r="AB5">
-        <v>143630776.9182705</v>
+        <v>628246847.6420938</v>
       </c>
       <c r="AC5">
-        <v>146265464.5048201</v>
+        <v>645062604.7781962</v>
       </c>
       <c r="AD5">
-        <v>148996989.1101856</v>
+        <v>662348970.1237046</v>
       </c>
       <c r="AE5">
-        <v>151852358.9868784</v>
+        <v>680253345.8885248</v>
       </c>
       <c r="AF5">
-        <v>154870737.0994748</v>
+        <v>698964433.1630162</v>
       </c>
       <c r="AG5">
-        <v>158105366.7587532</v>
+        <v>718717071.4858422</v>
       </c>
       <c r="AH5">
-        <v>159677718.6513126</v>
+        <v>725818056.8242769</v>
       </c>
       <c r="AI5">
-        <v>161616055.8876108</v>
+        <v>734376685.5183456</v>
       </c>
       <c r="AJ5">
-        <v>164012813.9459955</v>
+        <v>744719908.6912736</v>
       </c>
       <c r="AK5">
-        <v>166966114.4739107</v>
+        <v>757456225.7711736</v>
       </c>
       <c r="AL5">
-        <v>170572956.0481096</v>
+        <v>773000023.1679369</v>
       </c>
       <c r="AM5">
-        <v>174921015.4016218</v>
+        <v>797623438.53411</v>
       </c>
       <c r="AN5">
-        <v>180079586.7844783</v>
+        <v>825727285.4164988</v>
       </c>
       <c r="AO5">
-        <v>186090360.2933308</v>
+        <v>857516032.3886024</v>
       </c>
       <c r="AP5">
-        <v>192958894.1418742</v>
+        <v>893054768.2288837</v>
       </c>
       <c r="AQ5">
-        <v>200647905.4883676</v>
+        <v>932236851.8029028</v>
       </c>
       <c r="AR5">
-        <v>209073706.8234538</v>
+        <v>982967061.8998443</v>
       </c>
       <c r="AS5">
-        <v>218106891.3121607</v>
+        <v>1036550024.965093</v>
       </c>
       <c r="AT5">
-        <v>227578039.3122899</v>
+        <v>1092318549.086951</v>
       </c>
       <c r="AU5">
-        <v>237288397.9364724</v>
+        <v>1149470859.658029</v>
       </c>
       <c r="AV5">
-        <v>248337368.2955073</v>
+        <v>1207128437.063546</v>
       </c>
       <c r="AW5">
-        <v>259572391.7987169</v>
+        <v>1266803230.898515</v>
       </c>
       <c r="AX5">
-        <v>270429823.5776182</v>
+        <v>1325269895.599254</v>
       </c>
       <c r="AY5">
-        <v>280751091.0972456</v>
+        <v>1381825485.955732</v>
       </c>
       <c r="AZ5">
-        <v>290422252.0706565</v>
+        <v>1435939908.20717</v>
       </c>
       <c r="BA5">
-        <v>299380610.3479545</v>
+        <v>1487289662.599878</v>
       </c>
       <c r="BB5">
-        <v>307426264.3732443</v>
+        <v>1534378606.384904</v>
       </c>
       <c r="BC5">
-        <v>314792682.055566</v>
+        <v>1578730472.022236</v>
       </c>
       <c r="BD5">
-        <v>321569170.590628</v>
+        <v>1620685190.106017</v>
       </c>
       <c r="BE5">
-        <v>327882904.067581</v>
+        <v>1660766750.122842</v>
       </c>
       <c r="BF5">
-        <v>333887153.3260349</v>
+        <v>1699639135.632104</v>
       </c>
       <c r="BG5">
-        <v>339559325.9418522</v>
+        <v>1737279681.655515</v>
       </c>
       <c r="BH5">
-        <v>345251355.4335684</v>
+        <v>1775231711.381603</v>
       </c>
       <c r="BI5">
-        <v>351112860.3530214</v>
+        <v>1814234355.097522</v>
       </c>
       <c r="BJ5">
-        <v>357270367.7079229</v>
+        <v>1854946686.297505</v>
       </c>
       <c r="BK5">
-        <v>363822363.5600244</v>
+        <v>1897914063.553339</v>
       </c>
       <c r="BL5">
-        <v>370696304.2086744</v>
+        <v>1943441594.340554</v>
       </c>
       <c r="BM5">
-        <v>378073870.0833585</v>
+        <v>1991898738.051585</v>
       </c>
       <c r="BN5">
-        <v>385968253.6876407</v>
+        <v>2043398933.799389</v>
       </c>
       <c r="BO5">
-        <v>394367845.429593</v>
+        <v>2097907390.480052</v>
       </c>
       <c r="BP5">
-        <v>403238659.188072</v>
+        <v>2155250594.838996</v>
       </c>
       <c r="BQ5">
-        <v>412428464.2080438</v>
+        <v>2215157381.473401</v>
       </c>
       <c r="BR5">
-        <v>421966154.7955015</v>
+        <v>2277209833.579084</v>
       </c>
       <c r="BS5">
-        <v>431769515.5415148</v>
+        <v>2340943841.585258</v>
       </c>
       <c r="BT5">
-        <v>441748160.359489</v>
+        <v>2405855721.679944</v>
       </c>
       <c r="BU5">
-        <v>451808133.2271891</v>
+        <v>2471433993.996101</v>
       </c>
       <c r="BV5">
-        <v>461760512.1768947</v>
+        <v>2536971192.361037</v>
       </c>
       <c r="BW5">
-        <v>471615411.5299259</v>
+        <v>2602251930.463627</v>
       </c>
       <c r="BX5">
-        <v>481298175.4941286</v>
+        <v>2666919562.360117</v>
       </c>
       <c r="BY5">
-        <v>490750425.9628186</v>
+        <v>2730715225.97126</v>
       </c>
       <c r="BZ5">
-        <v>499933980.8817101</v>
+        <v>2793489877.189806</v>
       </c>
       <c r="CA5">
-        <v>508732323.9929673</v>
+        <v>2854817437.691037</v>
       </c>
       <c r="CB5">
-        <v>517254629.3392895</v>
+        <v>2915163747.619507</v>
       </c>
       <c r="CC5">
-        <v>525531120.6179641</v>
+        <v>2974702967.725967</v>
       </c>
       <c r="CD5">
-        <v>533610856.5097547</v>
+        <v>3033691700.765157</v>
       </c>
       <c r="CE5">
-        <v>541556858.6018178</v>
+        <v>3092447491.348557</v>
       </c>
       <c r="CF5">
-        <v>549326349.140146</v>
+        <v>3150653807.799881</v>
       </c>
       <c r="CG5">
-        <v>557106850.5966563</v>
+        <v>3209345786.525647</v>
       </c>
       <c r="CH5">
-        <v>564968666.1055251</v>
+        <v>3268873949.244169</v>
       </c>
       <c r="CI5">
-        <v>572974284.6995574</v>
+        <v>3329552661.474379</v>
       </c>
       <c r="CJ5">
-        <v>581174848.0092411</v>
+        <v>3391642138.453546</v>
       </c>
       <c r="CK5">
-        <v>589451950.8449616</v>
+        <v>3454282980.384974</v>
       </c>
       <c r="CL5">
-        <v>597983859.0579437</v>
+        <v>3518645377.978557</v>
       </c>
       <c r="CM5">
-        <v>606777820.156695</v>
+        <v>3584769355.791156</v>
       </c>
       <c r="CN5">
-        <v>615826629.1819463</v>
+        <v>3652619528.440572</v>
       </c>
       <c r="CO5">
-        <v>625110142.7854458</v>
+        <v>3722091947.732191</v>
       </c>
     </row>
   </sheetData>
